--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SEP" sheetId="1" r:id="rId1"/>
@@ -470,6 +470,63 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -514,63 +571,6 @@
     </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,7 +868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -961,10 +961,10 @@
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A7" s="62">
+      <c r="A7" s="81">
         <v>1</v>
       </c>
-      <c r="B7" s="65"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="26">
@@ -982,8 +982,8 @@
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="26">
@@ -1001,8 +1001,8 @@
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="64"/>
-      <c r="B9" s="67"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="26">
@@ -1020,10 +1020,10 @@
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="95.25" thickBot="1">
-      <c r="A10" s="62">
+      <c r="A10" s="81">
         <v>2</v>
       </c>
-      <c r="B10" s="65">
+      <c r="B10" s="84">
         <v>41059</v>
       </c>
       <c r="C10" s="25">
@@ -1051,8 +1051,8 @@
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="26">
@@ -1070,8 +1070,8 @@
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A12" s="64"/>
-      <c r="B12" s="67"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="26">
@@ -1089,8 +1089,8 @@
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="65"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="26">
@@ -1108,8 +1108,8 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A14" s="63"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="26">
@@ -1127,8 +1127,8 @@
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="66"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="26">
@@ -1146,7 +1146,7 @@
       <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A16" s="64"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="14"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -1881,7 +1881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -1974,10 +1974,10 @@
       <c r="M6" s="40"/>
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A7" s="71">
+      <c r="A7" s="90">
         <v>1</v>
       </c>
-      <c r="B7" s="74"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="56"/>
       <c r="D7" s="56"/>
       <c r="E7" s="57">
@@ -1995,8 +1995,8 @@
       <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A8" s="72"/>
-      <c r="B8" s="75"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
       <c r="E8" s="57">
@@ -2011,8 +2011,8 @@
       <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A9" s="73"/>
-      <c r="B9" s="76"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="56"/>
       <c r="D9" s="56"/>
       <c r="E9" s="57">
@@ -2030,7 +2030,7 @@
       <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:13" ht="79.5" thickBot="1">
-      <c r="A10" s="71">
+      <c r="A10" s="90">
         <v>2</v>
       </c>
       <c r="B10" s="53">
@@ -2063,7 +2063,7 @@
       <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A11" s="72"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="43"/>
       <c r="C11" s="56"/>
       <c r="D11" s="56"/>
@@ -2082,7 +2082,7 @@
       <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A12" s="72"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="43"/>
       <c r="C12" s="56"/>
       <c r="D12" s="56"/>
@@ -2098,7 +2098,7 @@
       <c r="M12" s="40"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="73"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="43"/>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="14" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
       <c r="A14" s="41"/>
-      <c r="B14" s="68"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="56"/>
       <c r="D14" s="56"/>
       <c r="E14" s="57">
@@ -2137,7 +2137,7 @@
     </row>
     <row r="15" spans="1:13" ht="27" customHeight="1" thickBot="1">
       <c r="A15" s="45"/>
-      <c r="B15" s="69"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="56"/>
       <c r="D15" s="56"/>
       <c r="E15" s="57">
@@ -2152,7 +2152,7 @@
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1">
       <c r="A16" s="41"/>
-      <c r="B16" s="70"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="56"/>
       <c r="D16" s="56"/>
       <c r="E16" s="57">
@@ -3005,7 +3005,7 @@
       <c r="B7" s="16"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="77"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -3018,7 +3018,7 @@
       <c r="B8" s="16"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="77"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -3033,7 +3033,7 @@
       <c r="B9" s="16"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="77"/>
+      <c r="E9" s="62"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -3043,28 +3043,28 @@
     </row>
     <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A10" s="13"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A11" s="82"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
       <c r="L11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="B12" s="16"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="77"/>
+      <c r="E12" s="62"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -3087,11 +3087,11 @@
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="83"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="85"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="12"/>
@@ -3103,9 +3103,9 @@
         <v>2</v>
       </c>
       <c r="B14" s="19"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="21"/>
@@ -3113,35 +3113,35 @@
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A15" s="83"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
     </row>
     <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A16" s="82"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
     </row>
     <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A17" s="13"/>
       <c r="B17" s="16"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="77"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -3154,7 +3154,7 @@
       <c r="B18" s="16"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="77"/>
+      <c r="E18" s="62"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -3169,7 +3169,7 @@
       <c r="B19" s="16"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="77"/>
+      <c r="E19" s="62"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -3179,28 +3179,28 @@
     </row>
     <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A20" s="13"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="82"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
       <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
@@ -3208,7 +3208,7 @@
       <c r="B22" s="16"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="77"/>
+      <c r="E22" s="62"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -3217,11 +3217,11 @@
       <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A23" s="83"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="12"/>
@@ -3233,9 +3233,9 @@
         <v>4</v>
       </c>
       <c r="B24" s="19"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="87"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="72"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="21"/>
@@ -3243,35 +3243,35 @@
       <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A25" s="83"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
     </row>
     <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A26" s="82"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
     </row>
     <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A27" s="13"/>
       <c r="B27" s="16"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="77"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -3284,7 +3284,7 @@
       <c r="B28" s="16"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="77"/>
+      <c r="E28" s="62"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -3299,7 +3299,7 @@
       <c r="B29" s="16"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="77"/>
+      <c r="E29" s="62"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -3309,28 +3309,28 @@
     </row>
     <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="13"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
       <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A31" s="82"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
       <c r="M31" s="10"/>
     </row>
     <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
@@ -3338,7 +3338,7 @@
       <c r="B32" s="16"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="77"/>
+      <c r="E32" s="62"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -3347,11 +3347,11 @@
       <c r="M32" s="10"/>
     </row>
     <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="83"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="85"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="70"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="12"/>
@@ -3363,9 +3363,9 @@
         <v>6</v>
       </c>
       <c r="B34" s="19"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="87"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="72"/>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
       <c r="H34" s="21"/>
@@ -3373,35 +3373,35 @@
       <c r="J34" s="20"/>
     </row>
     <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A35" s="83"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="91"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
     </row>
     <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A36" s="82"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
     </row>
     <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="13"/>
       <c r="B37" s="16"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="77"/>
+      <c r="E37" s="62"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -3414,7 +3414,7 @@
       <c r="B38" s="16"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="77"/>
+      <c r="E38" s="62"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
@@ -3429,7 +3429,7 @@
       <c r="B39" s="16"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="77"/>
+      <c r="E39" s="62"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
@@ -3439,28 +3439,28 @@
     </row>
     <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="13"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
       <c r="M40" s="10"/>
     </row>
     <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="82"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
       <c r="M41" s="10"/>
     </row>
     <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
@@ -3468,7 +3468,7 @@
       <c r="B42" s="16"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
-      <c r="E42" s="77"/>
+      <c r="E42" s="62"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -3477,11 +3477,11 @@
       <c r="M42" s="10"/>
     </row>
     <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A43" s="83"/>
+      <c r="A43" s="68"/>
       <c r="B43" s="17"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="85"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="70"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="12"/>
@@ -3493,9 +3493,9 @@
         <v>8</v>
       </c>
       <c r="B44" s="19"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="87"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="72"/>
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="H44" s="21"/>
@@ -3503,35 +3503,35 @@
       <c r="J44" s="20"/>
     </row>
     <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A45" s="83"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="91"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="91"/>
+      <c r="A45" s="68"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
     </row>
     <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="82"/>
-      <c r="B46" s="92"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="95"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="80"/>
     </row>
     <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A47" s="13"/>
       <c r="B47" s="16"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="77"/>
+      <c r="E47" s="62"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -3540,11 +3540,11 @@
       <c r="M47" s="10"/>
     </row>
     <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="83"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="17"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="85"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="70"/>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
       <c r="H48" s="12"/>
@@ -3556,9 +3556,9 @@
         <v>9</v>
       </c>
       <c r="B49" s="19"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="87"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="72"/>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="21"/>
@@ -3566,35 +3566,35 @@
       <c r="J49" s="20"/>
     </row>
     <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A50" s="83"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="91"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="91"/>
-      <c r="I50" s="91"/>
-      <c r="J50" s="91"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
     </row>
     <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A51" s="82"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="95"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="95"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
     </row>
     <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A52" s="13"/>
       <c r="B52" s="16"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="77"/>
+      <c r="E52" s="62"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -3607,7 +3607,7 @@
       <c r="B53" s="16"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
-      <c r="E53" s="77"/>
+      <c r="E53" s="62"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -3622,7 +3622,7 @@
       <c r="B54" s="16"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
-      <c r="E54" s="77"/>
+      <c r="E54" s="62"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
@@ -3632,28 +3632,28 @@
     </row>
     <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A55" s="13"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="81"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="66"/>
+      <c r="J55" s="66"/>
       <c r="M55" s="10"/>
     </row>
     <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A56" s="82"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="66"/>
+      <c r="J56" s="66"/>
       <c r="M56" s="10"/>
     </row>
     <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
@@ -3661,7 +3661,7 @@
       <c r="B57" s="16"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
-      <c r="E57" s="77"/>
+      <c r="E57" s="62"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -3670,11 +3670,11 @@
       <c r="M57" s="10"/>
     </row>
     <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A58" s="83"/>
+      <c r="A58" s="68"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="85"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="70"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
       <c r="H58" s="12"/>
@@ -3686,9 +3686,9 @@
         <v>11</v>
       </c>
       <c r="B59" s="19"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="86"/>
-      <c r="E59" s="87"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="72"/>
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
       <c r="H59" s="21"/>
@@ -3696,28 +3696,28 @@
       <c r="J59" s="20"/>
     </row>
     <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A60" s="83"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="90"/>
-      <c r="F60" s="91"/>
-      <c r="G60" s="91"/>
-      <c r="H60" s="91"/>
-      <c r="I60" s="91"/>
-      <c r="J60" s="91"/>
+      <c r="A60" s="68"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
     </row>
     <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A61" s="82"/>
-      <c r="B61" s="92"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="93"/>
-      <c r="E61" s="94"/>
-      <c r="F61" s="95"/>
-      <c r="G61" s="95"/>
-      <c r="H61" s="95"/>
-      <c r="I61" s="95"/>
-      <c r="J61" s="95"/>
+      <c r="A61" s="67"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="80"/>
+      <c r="G61" s="80"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="80"/>
+      <c r="J61" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="SEP" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
   <si>
     <t>Week</t>
   </si>
@@ -146,6 +146,21 @@
 1. How to create "Tracking Schedule"
 2. Control effort of members for SEP 
 </t>
+  </si>
+  <si>
+    <t>Le Thi Bich Van</t>
+  </si>
+  <si>
+    <t>Requirment</t>
+  </si>
+  <si>
+    <t>Team meeting</t>
+  </si>
+  <si>
+    <t>Customer meeting</t>
+  </si>
+  <si>
+    <t>Mentor meeting</t>
   </si>
 </sst>
 </file>
@@ -305,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -527,6 +542,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -536,15 +560,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -571,6 +586,18 @@
     </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M61"/>
+  <dimension ref="A2:M65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -906,7 +933,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
@@ -961,18 +988,28 @@
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A7" s="81">
+      <c r="A7" s="84">
         <v>1</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="14">
+        <v>41050</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.4375</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.51388888888888895</v>
+      </c>
       <c r="E7" s="26">
-        <f t="shared" ref="E7:E9" si="0">D7-C7</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+        <f t="shared" ref="E7:E13" si="0">D7-C7</f>
+        <v>7.6388888888888951E-2</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -981,17 +1018,27 @@
       </c>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="82"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+    <row r="8" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A8" s="85"/>
+      <c r="B8" s="82">
+        <v>41051</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.59027777777777779</v>
+      </c>
       <c r="E8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+        <v>0.13194444444444448</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -1000,17 +1047,27 @@
       </c>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="83"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+    <row r="9" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A9" s="85"/>
+      <c r="B9" s="96">
+        <v>41054</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.63541666666666663</v>
+      </c>
       <c r="E9" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -1019,120 +1076,155 @@
       </c>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="95.25" thickBot="1">
-      <c r="A10" s="81">
-        <v>2</v>
-      </c>
-      <c r="B10" s="84">
-        <v>41059</v>
-      </c>
+    <row r="10" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A10" s="85"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="25">
-        <v>0.59375</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="D10" s="25">
-        <v>0.64583333333333337</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="E10" s="26">
-        <f>D10-C10</f>
-        <v>5.208333333333337E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.8611111111111049E-2</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
-      <c r="L10" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A11" s="82"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="85"/>
+      <c r="B11" s="82">
+        <v>41056</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.52430555555555558</v>
+      </c>
       <c r="E11" s="26">
-        <f t="shared" ref="E11:E61" si="1">D11-C11</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+        <f t="shared" si="0"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="L11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A12" s="83"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="84">
+        <v>2</v>
+      </c>
+      <c r="B12" s="14">
+        <v>41057</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0.46180555555555558</v>
+      </c>
       <c r="E12" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+        <f t="shared" si="0"/>
+        <v>5.9027777777777846E-2</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="L12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="81"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A13" s="85"/>
+      <c r="B13" s="81">
+        <v>41058</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="E13" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="L13" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A14" s="82"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+    <row r="14" spans="1:13" ht="95.25" thickBot="1">
+      <c r="A14" s="85"/>
+      <c r="B14" s="14">
+        <v>41059</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="E14" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+        <f>D14-C14</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="L14" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A15" s="82"/>
-      <c r="B15" s="85"/>
+    <row r="15" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A15" s="85"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E15:E65" si="1">D15-C15</f>
         <v>0</v>
       </c>
       <c r="F15" s="12"/>
@@ -1141,28 +1233,32 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="L15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A16" s="85"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="L16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A16" s="83"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="26">
@@ -1177,8 +1273,8 @@
       <c r="M17" s="10"/>
     </row>
     <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26">
@@ -1193,8 +1289,8 @@
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="26">
@@ -1209,23 +1305,22 @@
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="M20" s="10"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="24"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="16"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -1258,130 +1353,130 @@
     </row>
     <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A23" s="13"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A24" s="13"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A25" s="13"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A26" s="24"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A27" s="13"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="M27" s="10"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A28" s="13"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="M28" s="10"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
     </row>
     <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A29" s="13"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="M29" s="10"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
     </row>
     <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="M30" s="10"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
     </row>
     <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A31" s="24"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="16"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -1414,132 +1509,130 @@
     </row>
     <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="13"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
       <c r="H33" s="12"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="M33" s="10"/>
     </row>
     <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="13"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="M34" s="10"/>
     </row>
     <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A35" s="13"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="M35" s="10"/>
     </row>
     <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A36" s="24"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="M36" s="10"/>
     </row>
     <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="13"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
       <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="M37" s="10"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
     </row>
     <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="13"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="M38" s="10"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A39" s="13">
-        <v>7</v>
-      </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="M39" s="10"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
     </row>
     <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="M40" s="10"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
     </row>
     <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="24"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="16"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -1571,207 +1664,209 @@
       <c r="M42" s="10"/>
     </row>
     <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A43" s="13"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
+      <c r="A43" s="13">
+        <v>7</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
       <c r="H43" s="12"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="M43" s="10"/>
     </row>
     <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A44" s="13"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
       <c r="E44" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="M44" s="10"/>
     </row>
     <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A45" s="13"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="M45" s="10"/>
     </row>
     <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="24"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="M46" s="10"/>
     </row>
     <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A47" s="13"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
       <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="M47" s="10"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
     </row>
     <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="13"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
     </row>
     <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="13"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
     </row>
     <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A50" s="13"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
       <c r="E50" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
     </row>
     <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A51" s="24"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="M51" s="10"/>
     </row>
     <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A52" s="13"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
       <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="M52" s="10"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
     </row>
     <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A53" s="13"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="M53" s="10"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
     </row>
     <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="13"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="M54" s="10"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
     </row>
     <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A55" s="13"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="M55" s="10"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
     </row>
     <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A56" s="24"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="16"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -1804,73 +1899,134 @@
     </row>
     <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A58" s="13"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
       <c r="H58" s="12"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="M58" s="10"/>
     </row>
     <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A59" s="13"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
       <c r="E59" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="M59" s="10"/>
     </row>
     <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A60" s="13"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="M60" s="10"/>
     </row>
     <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A61" s="24"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="M61" s="10"/>
+    </row>
+    <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A62" s="13"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+    </row>
+    <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A63" s="13"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+    </row>
+    <row r="64" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A64" s="13"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+    </row>
+    <row r="65" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A65" s="24"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:J6"/>
-  <mergeCells count="6">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B7:B9"/>
+  <mergeCells count="3">
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A12:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1881,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1919,7 +2075,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>15</v>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
@@ -551,12 +551,21 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -587,17 +596,8 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -939,7 +939,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="6">
-        <v>41059</v>
+        <v>41050</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1">
@@ -988,7 +988,7 @@
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A7" s="84">
+      <c r="A7" s="86">
         <v>1</v>
       </c>
       <c r="B7" s="14">
@@ -1019,7 +1019,7 @@
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A8" s="85"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="82">
         <v>41051</v>
       </c>
@@ -1048,8 +1048,8 @@
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A9" s="85"/>
-      <c r="B9" s="96">
+      <c r="A9" s="87"/>
+      <c r="B9" s="88">
         <v>41054</v>
       </c>
       <c r="C9" s="25">
@@ -1077,8 +1077,8 @@
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="97"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="25">
         <v>0.67361111111111116</v>
       </c>
@@ -1101,7 +1101,7 @@
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="85"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="82">
         <v>41056</v>
       </c>
@@ -1130,7 +1130,7 @@
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="84">
+      <c r="A12" s="86">
         <v>2</v>
       </c>
       <c r="B12" s="14">
@@ -1161,7 +1161,7 @@
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="85"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="81">
         <v>41058</v>
       </c>
@@ -1190,7 +1190,7 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="95.25" thickBot="1">
-      <c r="A14" s="85"/>
+      <c r="A14" s="87"/>
       <c r="B14" s="14">
         <v>41059</v>
       </c>
@@ -1219,7 +1219,7 @@
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A15" s="85"/>
+      <c r="A15" s="87"/>
       <c r="B15" s="81"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -1238,7 +1238,7 @@
       <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A16" s="85"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="14"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -1257,7 +1257,7 @@
       <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A17" s="86"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="81"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -1273,7 +1273,7 @@
       <c r="M17" s="10"/>
     </row>
     <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A18" s="98"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="14"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -1289,7 +1289,7 @@
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A19" s="98"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="83"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -1305,7 +1305,7 @@
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A20" s="99"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="14"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -2038,7 +2038,7 @@
   <dimension ref="A2:M63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2081,7 +2081,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="36">
-        <v>41059</v>
+        <v>41050</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1">
@@ -2130,10 +2130,10 @@
       <c r="M6" s="40"/>
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A7" s="90">
+      <c r="A7" s="93">
         <v>1</v>
       </c>
-      <c r="B7" s="93"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="56"/>
       <c r="D7" s="56"/>
       <c r="E7" s="57">
@@ -2151,8 +2151,8 @@
       <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A8" s="91"/>
-      <c r="B8" s="94"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
       <c r="E8" s="57">
@@ -2167,8 +2167,8 @@
       <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A9" s="92"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="56"/>
       <c r="D9" s="56"/>
       <c r="E9" s="57">
@@ -2186,7 +2186,7 @@
       <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:13" ht="79.5" thickBot="1">
-      <c r="A10" s="90">
+      <c r="A10" s="93">
         <v>2</v>
       </c>
       <c r="B10" s="53">
@@ -2219,7 +2219,7 @@
       <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A11" s="91"/>
+      <c r="A11" s="94"/>
       <c r="B11" s="43"/>
       <c r="C11" s="56"/>
       <c r="D11" s="56"/>
@@ -2238,7 +2238,7 @@
       <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A12" s="91"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="43"/>
       <c r="C12" s="56"/>
       <c r="D12" s="56"/>
@@ -2254,7 +2254,7 @@
       <c r="M12" s="40"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="92"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="43"/>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="14" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
       <c r="A14" s="41"/>
-      <c r="B14" s="87"/>
+      <c r="B14" s="90"/>
       <c r="C14" s="56"/>
       <c r="D14" s="56"/>
       <c r="E14" s="57">
@@ -2293,7 +2293,7 @@
     </row>
     <row r="15" spans="1:13" ht="27" customHeight="1" thickBot="1">
       <c r="A15" s="45"/>
-      <c r="B15" s="88"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="56"/>
       <c r="D15" s="56"/>
       <c r="E15" s="57">
@@ -2308,7 +2308,7 @@
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1">
       <c r="A16" s="41"/>
-      <c r="B16" s="89"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="56"/>
       <c r="D16" s="56"/>
       <c r="E16" s="57">

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
   <si>
     <t>Week</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>Mentor meeting</t>
+  </si>
+  <si>
+    <t>K15T1-Team11-MRBS-Tracking Schedule-ver0.1</t>
+  </si>
+  <si>
+    <t>K15T1-Team11-MRBS-Tracking Schedule-ver0.1 (Update)</t>
   </si>
 </sst>
 </file>
@@ -566,6 +572,9 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -594,9 +603,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -895,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1078,7 +1084,7 @@
     </row>
     <row r="10" spans="1:13" ht="16.5" thickBot="1">
       <c r="A10" s="87"/>
-      <c r="B10" s="99"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="25">
         <v>0.67361111111111116</v>
       </c>
@@ -1191,7 +1197,7 @@
     </row>
     <row r="14" spans="1:13" ht="95.25" thickBot="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="14">
+      <c r="B14" s="88">
         <v>41059</v>
       </c>
       <c r="C14" s="25">
@@ -1210,7 +1216,9 @@
       <c r="G14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="L14" s="2" t="s">
@@ -1218,18 +1226,26 @@
       </c>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" thickBot="1">
+    <row r="15" spans="1:13" ht="95.25" thickBot="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="25">
+        <v>0.16111111111111112</v>
+      </c>
       <c r="D15" s="25"/>
       <c r="E15" s="26">
         <f t="shared" ref="E15:E65" si="1">D15-C15</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+        <v>-0.16111111111111112</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="L15" s="2" t="s">
@@ -1257,7 +1273,7 @@
       <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A17" s="89"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="81"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -2023,10 +2039,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:J6"/>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2130,10 +2147,10 @@
       <c r="M6" s="40"/>
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A7" s="93">
+      <c r="A7" s="94">
         <v>1</v>
       </c>
-      <c r="B7" s="96"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="56"/>
       <c r="D7" s="56"/>
       <c r="E7" s="57">
@@ -2151,8 +2168,8 @@
       <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A8" s="94"/>
-      <c r="B8" s="97"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
       <c r="E8" s="57">
@@ -2167,8 +2184,8 @@
       <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A9" s="95"/>
-      <c r="B9" s="98"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="56"/>
       <c r="D9" s="56"/>
       <c r="E9" s="57">
@@ -2186,7 +2203,7 @@
       <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:13" ht="79.5" thickBot="1">
-      <c r="A10" s="93">
+      <c r="A10" s="94">
         <v>2</v>
       </c>
       <c r="B10" s="53">
@@ -2219,7 +2236,7 @@
       <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A11" s="94"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="43"/>
       <c r="C11" s="56"/>
       <c r="D11" s="56"/>
@@ -2238,7 +2255,7 @@
       <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A12" s="94"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="43"/>
       <c r="C12" s="56"/>
       <c r="D12" s="56"/>
@@ -2254,7 +2271,7 @@
       <c r="M12" s="40"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="95"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="43"/>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
@@ -2274,7 +2291,7 @@
     </row>
     <row r="14" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
       <c r="A14" s="41"/>
-      <c r="B14" s="90"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="56"/>
       <c r="D14" s="56"/>
       <c r="E14" s="57">
@@ -2293,7 +2310,7 @@
     </row>
     <row r="15" spans="1:13" ht="27" customHeight="1" thickBot="1">
       <c r="A15" s="45"/>
-      <c r="B15" s="91"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="56"/>
       <c r="D15" s="56"/>
       <c r="E15" s="57">
@@ -2308,7 +2325,7 @@
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1">
       <c r="A16" s="41"/>
-      <c r="B16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="56"/>
       <c r="D16" s="56"/>
       <c r="E16" s="57">

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
   <si>
     <t>Week</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>K15T1-Team11-MRBS-Tracking Schedule-ver0.1 (Update)</t>
+  </si>
+  <si>
+    <t>Create Plan &amp; schedule</t>
   </si>
 </sst>
 </file>
@@ -901,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1232,10 +1235,12 @@
       <c r="C15" s="25">
         <v>0.16111111111111112</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="25">
+        <v>0.27083333333333331</v>
+      </c>
       <c r="E15" s="26">
-        <f t="shared" ref="E15:E65" si="1">D15-C15</f>
-        <v>-0.16111111111111112</v>
+        <f>D15-C15</f>
+        <v>0.10972222222222219</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>38</v>
@@ -1253,17 +1258,27 @@
       </c>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" thickBot="1">
+    <row r="16" spans="1:13" ht="32.25" thickBot="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="14">
+        <v>41062</v>
+      </c>
+      <c r="C16" s="25">
+        <v>3.8194444444444441E-2</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0.34722222222222227</v>
+      </c>
       <c r="E16" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+        <f t="shared" ref="E16:E65" si="1">D16-C16</f>
+        <v>0.30902777777777785</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
   <si>
     <t>Week</t>
   </si>
@@ -170,6 +170,21 @@
   </si>
   <si>
     <t>Create Plan &amp; schedule</t>
+  </si>
+  <si>
+    <t>K15T1-Team11-MRBS-Schedule-ver0.1</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Continous</t>
+  </si>
+  <si>
+    <t>Review &amp; Discuss</t>
   </si>
 </sst>
 </file>
@@ -329,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -606,6 +621,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -902,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M65"/>
+  <dimension ref="A2:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -918,8 +936,8 @@
     <col min="6" max="6" width="14.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="35.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="2"/>
     <col min="12" max="12" width="26" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="2"/>
@@ -986,7 +1004,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>8</v>
@@ -1020,7 +1038,9 @@
         <v>42</v>
       </c>
       <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="J7" s="12"/>
       <c r="L7" s="2" t="s">
         <v>22</v>
@@ -1049,7 +1069,9 @@
         <v>42</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="J8" s="12"/>
       <c r="L8" s="2" t="s">
         <v>23</v>
@@ -1078,7 +1100,9 @@
         <v>42</v>
       </c>
       <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="J9" s="12"/>
       <c r="L9" s="2" t="s">
         <v>24</v>
@@ -1105,7 +1129,9 @@
         <v>43</v>
       </c>
       <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="J10" s="12"/>
       <c r="M10" s="10"/>
     </row>
@@ -1131,7 +1157,9 @@
         <v>42</v>
       </c>
       <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="I11" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="J11" s="12"/>
       <c r="L11" s="2" t="s">
         <v>25</v>
@@ -1162,7 +1190,9 @@
         <v>44</v>
       </c>
       <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="I12" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="J12" s="12"/>
       <c r="L12" s="2" t="s">
         <v>26</v>
@@ -1191,7 +1221,9 @@
         <v>42</v>
       </c>
       <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="I13" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="J13" s="12"/>
       <c r="L13" s="2" t="s">
         <v>27</v>
@@ -1222,7 +1254,9 @@
       <c r="H14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="J14" s="12"/>
       <c r="L14" s="2" t="s">
         <v>34</v>
@@ -1251,7 +1285,9 @@
       <c r="H15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="J15" s="12"/>
       <c r="L15" s="2" t="s">
         <v>10</v>
@@ -1260,7 +1296,7 @@
     </row>
     <row r="16" spans="1:13" ht="32.25" thickBot="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="14">
+      <c r="B16" s="88">
         <v>41062</v>
       </c>
       <c r="C16" s="25">
@@ -1270,7 +1306,7 @@
         <v>0.34722222222222227</v>
       </c>
       <c r="E16" s="26">
-        <f t="shared" ref="E16:E65" si="1">D16-C16</f>
+        <f t="shared" ref="E16:E66" si="1">D16-C16</f>
         <v>0.30902777777777785</v>
       </c>
       <c r="F16" s="12" t="s">
@@ -1279,49 +1315,77 @@
       <c r="G16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="H16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="J16" s="12"/>
       <c r="L16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A17" s="90"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+    <row r="17" spans="1:13" ht="32.25" thickBot="1">
+      <c r="A17" s="87"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="25">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="J17" s="12"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A18" s="84"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+    <row r="18" spans="1:13" ht="32.25" thickBot="1">
+      <c r="A18" s="90"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="25">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D18" s="25">
+        <v>0.63194444444444442</v>
+      </c>
       <c r="E18" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+        <f t="shared" ref="E18" si="2">D18-C18</f>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="J18" s="12"/>
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A19" s="84"/>
-      <c r="B19" s="83"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="26">
@@ -1336,35 +1400,35 @@
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A20" s="85"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="12"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="M21" s="10"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A22" s="13"/>
@@ -1415,7 +1479,7 @@
       <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A25" s="24"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="16"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -1431,7 +1495,7 @@
       <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A26" s="13"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="16"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -1448,79 +1512,79 @@
     </row>
     <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A27" s="13"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="M27" s="10"/>
     </row>
     <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A28" s="13"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A29" s="13"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
     </row>
     <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="M31" s="10"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
     </row>
     <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="13"/>
@@ -1571,7 +1635,7 @@
       <c r="M34" s="10"/>
     </row>
     <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A35" s="24"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="16"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -1587,7 +1651,7 @@
       <c r="M35" s="10"/>
     </row>
     <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A36" s="13"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="16"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -1604,79 +1668,79 @@
     </row>
     <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="13"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
       <c r="H37" s="12"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="13"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A39" s="13"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="24"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
     </row>
     <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="13"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="M41" s="10"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
     </row>
     <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="13"/>
@@ -1695,9 +1759,7 @@
       <c r="M42" s="10"/>
     </row>
     <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A43" s="13">
-        <v>7</v>
-      </c>
+      <c r="A43" s="13"/>
       <c r="B43" s="16"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -1713,7 +1775,9 @@
       <c r="M43" s="10"/>
     </row>
     <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A44" s="13"/>
+      <c r="A44" s="13">
+        <v>7</v>
+      </c>
       <c r="B44" s="16"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -1729,7 +1793,7 @@
       <c r="M44" s="10"/>
     </row>
     <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A45" s="24"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="16"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -1745,7 +1809,7 @@
       <c r="M45" s="10"/>
     </row>
     <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="13"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="16"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -1762,155 +1826,155 @@
     </row>
     <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A47" s="13"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
       <c r="H47" s="12"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="M47" s="10"/>
     </row>
     <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="13"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
     </row>
     <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="13"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
     </row>
     <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A50" s="24"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
       <c r="E50" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
     </row>
     <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A51" s="13"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="M51" s="10"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
     </row>
     <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A52" s="13"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
       <c r="H52" s="12"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="M52" s="10"/>
     </row>
     <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A53" s="13"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
     </row>
     <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="13"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
     </row>
     <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A55" s="24"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
     </row>
     <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A56" s="13"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
       <c r="E56" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="M56" s="10"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
     </row>
     <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A57" s="13"/>
@@ -1961,7 +2025,7 @@
       <c r="M59" s="10"/>
     </row>
     <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A60" s="24"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="16"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -1977,7 +2041,7 @@
       <c r="M60" s="10"/>
     </row>
     <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A61" s="13"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="16"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -1994,71 +2058,88 @@
     </row>
     <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A62" s="13"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
       <c r="H62" s="12"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="M62" s="10"/>
     </row>
     <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A63" s="13"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
     </row>
     <row r="64" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A64" s="13"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
     </row>
     <row r="65" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A65" s="24"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+    </row>
+    <row r="66" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A66" s="24"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:J6"/>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A12:A17"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SEP" sheetId="1" r:id="rId1"/>
-    <sheet name="SAD" sheetId="2" r:id="rId2"/>
-    <sheet name="Other" sheetId="3" r:id="rId3"/>
+    <sheet name="SAD-Rework" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SEP!$A$6:$J$6</definedName>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
   <si>
     <t>Week</t>
   </si>
@@ -44,9 +43,6 @@
     <t>Artifact</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>U</t>
   </si>
   <si>
@@ -71,18 +67,9 @@
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>Do Minh Tam</t>
-  </si>
-  <si>
     <t>Time Recording Log For:    SEP Project</t>
   </si>
   <si>
-    <t>Time Recording Log For:    Others Project</t>
-  </si>
-  <si>
-    <t>Time Recording Log For:    SAD Final Project</t>
-  </si>
-  <si>
     <t>Requirement</t>
   </si>
   <si>
@@ -107,36 +94,10 @@
     <t>CM</t>
   </si>
   <si>
-    <t>Requirement &amp; Analysis</t>
-  </si>
-  <si>
-    <t>Architecture Design</t>
-  </si>
-  <si>
-    <t>Implement</t>
-  </si>
-  <si>
-    <t>System Test</t>
-  </si>
-  <si>
-    <t>Deployment &amp; Maintenance</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
     <t>Report</t>
-  </si>
-  <si>
-    <t>1. Requirment Analysis
-2. Architect Design</t>
-  </si>
-  <si>
-    <t>Team Meeting</t>
-  </si>
-  <si>
-    <t>1. Review "User Requirement Document"
-2. Review "Architect Driver"</t>
   </si>
   <si>
     <t>Planning+PM</t>
@@ -185,6 +146,27 @@
   </si>
   <si>
     <t>Review &amp; Discuss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseline work </t>
+  </si>
+  <si>
+    <t>K15T1-Team11-MRBS-Schedule-ver1.1</t>
+  </si>
+  <si>
+    <t>K15T1-Team11-MRBS-Schedule-ver1.2</t>
+  </si>
+  <si>
+    <t>Time Recording Log For: Rework Final Project</t>
+  </si>
+  <si>
+    <t>Project Management</t>
+  </si>
+  <si>
+    <t>Define overal Schedule</t>
+  </si>
+  <si>
+    <t>K15T1-Team1-FinalProject-PlanRework-2010.mpp</t>
   </si>
 </sst>
 </file>
@@ -194,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,17 +194,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -344,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -426,102 +397,19 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -542,37 +430,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -581,50 +466,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -922,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -945,25 +812,25 @@
   <sheetData>
     <row r="2" spans="1:13">
       <c r="E2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:13">
       <c r="D3" s="3"/>
       <c r="L3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="6">
         <v>41050</v>
@@ -972,10 +839,10 @@
     <row r="5" spans="1:13" ht="16.5" thickBot="1">
       <c r="C5" s="7"/>
       <c r="L5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="32.25" thickBot="1">
@@ -995,7 +862,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>5</v>
@@ -1004,18 +871,18 @@
         <v>6</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A7" s="86">
+      <c r="A7" s="56">
         <v>1</v>
       </c>
       <c r="B7" s="14">
@@ -1032,24 +899,24 @@
         <v>7.6388888888888951E-2</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J7" s="12"/>
       <c r="L7" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A8" s="87"/>
-      <c r="B8" s="82">
+      <c r="A8" s="57"/>
+      <c r="B8" s="51">
         <v>41051</v>
       </c>
       <c r="C8" s="25">
@@ -1063,24 +930,24 @@
         <v>0.13194444444444448</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J8" s="12"/>
       <c r="L8" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A9" s="87"/>
-      <c r="B9" s="88">
+      <c r="A9" s="57"/>
+      <c r="B9" s="54">
         <v>41054</v>
       </c>
       <c r="C9" s="25">
@@ -1094,24 +961,24 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J9" s="12"/>
       <c r="L9" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A10" s="87"/>
-      <c r="B10" s="89"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="25">
         <v>0.67361111111111116</v>
       </c>
@@ -1123,21 +990,21 @@
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J10" s="12"/>
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="87"/>
-      <c r="B11" s="82">
+      <c r="A11" s="57"/>
+      <c r="B11" s="51">
         <v>41056</v>
       </c>
       <c r="C11" s="25">
@@ -1151,23 +1018,23 @@
         <v>9.375E-2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J11" s="12"/>
       <c r="L11" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="86">
+      <c r="A12" s="56">
         <v>2</v>
       </c>
       <c r="B12" s="14">
@@ -1184,24 +1051,24 @@
         <v>5.9027777777777846E-2</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J12" s="12"/>
       <c r="L12" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="87"/>
-      <c r="B13" s="81">
+      <c r="A13" s="57"/>
+      <c r="B13" s="50">
         <v>41058</v>
       </c>
       <c r="C13" s="25">
@@ -1215,24 +1082,24 @@
         <v>6.25E-2</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J13" s="12"/>
       <c r="L13" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="95.25" thickBot="1">
-      <c r="A14" s="87"/>
-      <c r="B14" s="88">
+      <c r="A14" s="57"/>
+      <c r="B14" s="54">
         <v>41059</v>
       </c>
       <c r="C14" s="25">
@@ -1246,26 +1113,26 @@
         <v>3.125E-2</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="J14" s="12"/>
       <c r="L14" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="95.25" thickBot="1">
-      <c r="A15" s="87"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="25">
         <v>0.16111111111111112</v>
       </c>
@@ -1277,26 +1144,26 @@
         <v>0.10972222222222219</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="J15" s="12"/>
       <c r="L15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="32.25" thickBot="1">
-      <c r="A16" s="87"/>
-      <c r="B16" s="88">
+      <c r="A16" s="57"/>
+      <c r="B16" s="54">
         <v>41062</v>
       </c>
       <c r="C16" s="25">
@@ -1310,26 +1177,26 @@
         <v>0.30902777777777785</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J16" s="12"/>
       <c r="L16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="32.25" thickBot="1">
-      <c r="A17" s="87"/>
-      <c r="B17" s="100"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="25">
         <v>0.39583333333333331</v>
       </c>
@@ -1341,23 +1208,23 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J17" s="12"/>
       <c r="M17" s="10"/>
     </row>
     <row r="18" spans="1:13" ht="32.25" thickBot="1">
-      <c r="A18" s="90"/>
-      <c r="B18" s="89"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="25">
         <v>0.52777777777777779</v>
       </c>
@@ -1369,54 +1236,80 @@
         <v>0.10416666666666663</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J18" s="12"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A19" s="84"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+    <row r="19" spans="1:13" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A19" s="52"/>
+      <c r="B19" s="54">
+        <v>40735</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D19" s="25">
+        <v>0.5</v>
+      </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="J19" s="12"/>
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A20" s="84"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="25">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0.62291666666666667</v>
+      </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="J20" s="12"/>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="85"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="14"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -2134,7 +2027,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:J6"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B14:B15"/>
@@ -2148,1040 +2042,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="7.42578125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="32"/>
-    <col min="3" max="3" width="10.7109375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="34"/>
-    <col min="6" max="6" width="22.7109375" style="32" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="32" customWidth="1"/>
-    <col min="8" max="8" width="22" style="32" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" style="32" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="32"/>
-    <col min="12" max="12" width="26" style="32" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="32"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13">
-      <c r="E2" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="33"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="D3" s="33"/>
-      <c r="L3" s="35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="36">
-        <v>41050</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" thickBot="1">
-      <c r="C5" s="37"/>
-      <c r="L5" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="32.25" thickBot="1">
-      <c r="A6" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="40"/>
-    </row>
-    <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A7" s="94">
-        <v>1</v>
-      </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57">
-        <f t="shared" ref="E7:E9" si="0">D7-C7</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="L7" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="40"/>
-    </row>
-    <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A8" s="95"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="M8" s="40"/>
-    </row>
-    <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A9" s="96"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="L9" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="40"/>
-    </row>
-    <row r="10" spans="1:13" ht="79.5" thickBot="1">
-      <c r="A10" s="94">
-        <v>2</v>
-      </c>
-      <c r="B10" s="53">
-        <v>41059</v>
-      </c>
-      <c r="C10" s="56">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D10" s="56">
-        <v>0.46875</v>
-      </c>
-      <c r="E10" s="57">
-        <f>D10-C10</f>
-        <v>7.2916666666666685E-2</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="L10" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="40"/>
-    </row>
-    <row r="11" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A11" s="95"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57">
-        <f t="shared" ref="E11:E63" si="1">D11-C11</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="L11" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="40"/>
-    </row>
-    <row r="12" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A12" s="95"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="M12" s="40"/>
-    </row>
-    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="96"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="L13" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="40"/>
-    </row>
-    <row r="14" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="L14" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="40"/>
-    </row>
-    <row r="15" spans="1:13" ht="27" customHeight="1" thickBot="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-    </row>
-    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-    </row>
-    <row r="18" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A18" s="44"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-    </row>
-    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A19" s="41"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="M19" s="40"/>
-    </row>
-    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A20" s="41"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="M20" s="40"/>
-    </row>
-    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="41"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="M21" s="40"/>
-    </row>
-    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A22" s="41"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="M22" s="40"/>
-    </row>
-    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="M23" s="40"/>
-    </row>
-    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A24" s="41"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="M24" s="40"/>
-    </row>
-    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A25" s="45"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-    </row>
-    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A26" s="41"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-    </row>
-    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A27" s="45"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-    </row>
-    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A28" s="44"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-    </row>
-    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A29" s="41"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="M29" s="40"/>
-    </row>
-    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A30" s="41"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="M30" s="40"/>
-    </row>
-    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A31" s="41"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="M31" s="40"/>
-    </row>
-    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A32" s="41"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="M32" s="40"/>
-    </row>
-    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="44"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="M33" s="40"/>
-    </row>
-    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A34" s="41"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="M34" s="40"/>
-    </row>
-    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A35" s="45"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-    </row>
-    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A36" s="41"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-    </row>
-    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A37" s="45"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-    </row>
-    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A38" s="44"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-    </row>
-    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A39" s="41"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="M39" s="40"/>
-    </row>
-    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="41"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="M40" s="40"/>
-    </row>
-    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="41"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="M41" s="40"/>
-    </row>
-    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A42" s="41"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="M42" s="40"/>
-    </row>
-    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A43" s="44"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="M43" s="40"/>
-    </row>
-    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A44" s="41"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="M44" s="40"/>
-    </row>
-    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A45" s="45"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-    </row>
-    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="41"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-    </row>
-    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A47" s="45"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-    </row>
-    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="44"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-    </row>
-    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A49" s="41"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="M49" s="40"/>
-    </row>
-    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A50" s="45"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-    </row>
-    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A51" s="41"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-    </row>
-    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A52" s="45"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-    </row>
-    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A53" s="44"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-    </row>
-    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A54" s="41"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="M54" s="40"/>
-    </row>
-    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A55" s="41"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="M55" s="40"/>
-    </row>
-    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A56" s="41"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="M56" s="40"/>
-    </row>
-    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A57" s="41"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="M57" s="40"/>
-    </row>
-    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A58" s="44"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="M58" s="40"/>
-    </row>
-    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A59" s="41"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="M59" s="40"/>
-    </row>
-    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A60" s="45"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="46"/>
-      <c r="J60" s="46"/>
-    </row>
-    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A61" s="41"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-    </row>
-    <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A62" s="45"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-    </row>
-    <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A63" s="44"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A10:A13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3190,11 +2054,11 @@
     <col min="2" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="27.42578125" style="2" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="2"/>
     <col min="12" max="12" width="26" style="2" customWidth="1"/>
@@ -3202,38 +2066,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="3"/>
+      <c r="C2" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="D3" s="3"/>
-      <c r="L3" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="6">
-        <v>41059</v>
+        <v>41101</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1">
       <c r="C5" s="7"/>
-      <c r="L5" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="32.25" thickBot="1">
@@ -3253,7 +2112,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>5</v>
@@ -3262,32 +2121,52 @@
         <v>6</v>
       </c>
       <c r="I6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>8</v>
       </c>
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A7" s="13"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="B7" s="16">
+        <v>41101</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.70347222222222217</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E7" s="26">
+        <f>D7-C7</f>
+        <v>6.7361111111111205E-2</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="13"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="62"/>
+      <c r="B8" s="16">
+        <v>41102</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26">
+        <f t="shared" ref="E8:E18" si="0">D8-C8</f>
+        <v>0</v>
+      </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -3299,10 +2178,15 @@
       <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="62"/>
+      <c r="B9" s="16">
+        <v>41103</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -3312,55 +2196,69 @@
     </row>
     <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A10" s="13"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
+      <c r="B10" s="16">
+        <v>41104</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A11" s="67"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="L11" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="36"/>
+      <c r="B11" s="16">
+        <v>41105</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A12" s="13"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="62"/>
+      <c r="B12" s="16">
+        <v>41106</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
-      <c r="L12" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="68"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="16">
+        <v>41107</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="12"/>
@@ -3371,10 +2269,15 @@
       <c r="A14" s="13">
         <v>2</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
+      <c r="B14" s="16">
+        <v>41108</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="21"/>
@@ -3382,35 +2285,50 @@
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A15" s="68"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="16">
+        <v>41109</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A16" s="67"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="16">
+        <v>41110</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A17" s="13"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="62"/>
+      <c r="B17" s="16">
+        <v>41111</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -3420,10 +2338,15 @@
     </row>
     <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A18" s="13"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="62"/>
+      <c r="B18" s="16">
+        <v>41112</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -3438,7 +2361,7 @@
       <c r="B19" s="16"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="62"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -3448,28 +2371,28 @@
     </row>
     <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A20" s="13"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="67"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
       <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
@@ -3477,7 +2400,7 @@
       <c r="B22" s="16"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="62"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -3486,11 +2409,11 @@
       <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A23" s="68"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="12"/>
@@ -3502,9 +2425,9 @@
         <v>4</v>
       </c>
       <c r="B24" s="19"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="21"/>
@@ -3512,35 +2435,35 @@
       <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A25" s="68"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
     </row>
     <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A26" s="67"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
     </row>
     <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A27" s="13"/>
       <c r="B27" s="16"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="62"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -3553,7 +2476,7 @@
       <c r="B28" s="16"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="62"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -3568,7 +2491,7 @@
       <c r="B29" s="16"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="62"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -3578,28 +2501,28 @@
     </row>
     <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="13"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
       <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A31" s="67"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
       <c r="M31" s="10"/>
     </row>
     <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
@@ -3607,7 +2530,7 @@
       <c r="B32" s="16"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="62"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -3616,11 +2539,11 @@
       <c r="M32" s="10"/>
     </row>
     <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="68"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="70"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="12"/>
@@ -3632,9 +2555,9 @@
         <v>6</v>
       </c>
       <c r="B34" s="19"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="72"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="41"/>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
       <c r="H34" s="21"/>
@@ -3642,35 +2565,35 @@
       <c r="J34" s="20"/>
     </row>
     <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A35" s="68"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
     </row>
     <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A36" s="67"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
     </row>
     <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="13"/>
       <c r="B37" s="16"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="62"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -3683,7 +2606,7 @@
       <c r="B38" s="16"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="62"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
@@ -3698,7 +2621,7 @@
       <c r="B39" s="16"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="62"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
@@ -3708,28 +2631,28 @@
     </row>
     <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="13"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
       <c r="M40" s="10"/>
     </row>
     <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="67"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
       <c r="M41" s="10"/>
     </row>
     <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
@@ -3737,7 +2660,7 @@
       <c r="B42" s="16"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
-      <c r="E42" s="62"/>
+      <c r="E42" s="31"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -3746,11 +2669,11 @@
       <c r="M42" s="10"/>
     </row>
     <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A43" s="68"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="17"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="70"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="39"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="12"/>
@@ -3762,9 +2685,9 @@
         <v>8</v>
       </c>
       <c r="B44" s="19"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="72"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="41"/>
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="H44" s="21"/>
@@ -3772,35 +2695,35 @@
       <c r="J44" s="20"/>
     </row>
     <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A45" s="68"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
     </row>
     <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="67"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="80"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
     </row>
     <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A47" s="13"/>
       <c r="B47" s="16"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="62"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -3809,11 +2732,11 @@
       <c r="M47" s="10"/>
     </row>
     <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="68"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="17"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="70"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="39"/>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
       <c r="H48" s="12"/>
@@ -3825,9 +2748,9 @@
         <v>9</v>
       </c>
       <c r="B49" s="19"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="72"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="41"/>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="21"/>
@@ -3835,35 +2758,35 @@
       <c r="J49" s="20"/>
     </row>
     <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A50" s="68"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
     </row>
     <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A51" s="67"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
     </row>
     <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A52" s="13"/>
       <c r="B52" s="16"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="62"/>
+      <c r="E52" s="31"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -3876,7 +2799,7 @@
       <c r="B53" s="16"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
-      <c r="E53" s="62"/>
+      <c r="E53" s="31"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -3891,7 +2814,7 @@
       <c r="B54" s="16"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
-      <c r="E54" s="62"/>
+      <c r="E54" s="31"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
@@ -3901,28 +2824,28 @@
     </row>
     <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A55" s="13"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
       <c r="M55" s="10"/>
     </row>
     <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A56" s="67"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
       <c r="M56" s="10"/>
     </row>
     <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
@@ -3930,7 +2853,7 @@
       <c r="B57" s="16"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
-      <c r="E57" s="62"/>
+      <c r="E57" s="31"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -3939,11 +2862,11 @@
       <c r="M57" s="10"/>
     </row>
     <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A58" s="68"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="70"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="39"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
       <c r="H58" s="12"/>
@@ -3955,9 +2878,9 @@
         <v>11</v>
       </c>
       <c r="B59" s="19"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="72"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="41"/>
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
       <c r="H59" s="21"/>
@@ -3965,28 +2888,28 @@
       <c r="J59" s="20"/>
     </row>
     <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A60" s="68"/>
-      <c r="B60" s="73"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
     </row>
     <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A61" s="67"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="80"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
   <si>
     <t>Week</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>K15T1-Team1-FinalProject-PlanRework-2010.mpp</t>
+  </si>
+  <si>
+    <t>Define detail Schedule</t>
+  </si>
+  <si>
+    <t>Continus</t>
   </si>
 </sst>
 </file>
@@ -466,6 +472,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -483,15 +498,6 @@
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,7 +888,7 @@
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A7" s="56">
+      <c r="A7" s="59">
         <v>1</v>
       </c>
       <c r="B7" s="14">
@@ -915,7 +921,7 @@
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A8" s="57"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="51">
         <v>41051</v>
       </c>
@@ -946,8 +952,8 @@
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A9" s="57"/>
-      <c r="B9" s="54">
+      <c r="A9" s="60"/>
+      <c r="B9" s="57">
         <v>41054</v>
       </c>
       <c r="C9" s="25">
@@ -977,8 +983,8 @@
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A10" s="57"/>
-      <c r="B10" s="55"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="25">
         <v>0.67361111111111116</v>
       </c>
@@ -1003,7 +1009,7 @@
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="57"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="51">
         <v>41056</v>
       </c>
@@ -1034,7 +1040,7 @@
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="56">
+      <c r="A12" s="59">
         <v>2</v>
       </c>
       <c r="B12" s="14">
@@ -1067,7 +1073,7 @@
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="57"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="50">
         <v>41058</v>
       </c>
@@ -1098,8 +1104,8 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="95.25" thickBot="1">
-      <c r="A14" s="57"/>
-      <c r="B14" s="54">
+      <c r="A14" s="60"/>
+      <c r="B14" s="57">
         <v>41059</v>
       </c>
       <c r="C14" s="25">
@@ -1131,8 +1137,8 @@
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="95.25" thickBot="1">
-      <c r="A15" s="57"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="25">
         <v>0.16111111111111112</v>
       </c>
@@ -1162,8 +1168,8 @@
       <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="32.25" thickBot="1">
-      <c r="A16" s="57"/>
-      <c r="B16" s="54">
+      <c r="A16" s="60"/>
+      <c r="B16" s="57">
         <v>41062</v>
       </c>
       <c r="C16" s="25">
@@ -1195,8 +1201,8 @@
       <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="32.25" thickBot="1">
-      <c r="A17" s="57"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="25">
         <v>0.39583333333333331</v>
       </c>
@@ -1223,8 +1229,8 @@
       <c r="M17" s="10"/>
     </row>
     <row r="18" spans="1:13" ht="32.25" thickBot="1">
-      <c r="A18" s="58"/>
-      <c r="B18" s="55"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="25">
         <v>0.52777777777777779</v>
       </c>
@@ -1252,7 +1258,7 @@
     </row>
     <row r="19" spans="1:13" ht="30.75" customHeight="1" thickBot="1">
       <c r="A19" s="52"/>
-      <c r="B19" s="54">
+      <c r="B19" s="57">
         <v>40735</v>
       </c>
       <c r="C19" s="25">
@@ -1282,7 +1288,7 @@
     </row>
     <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A20" s="52"/>
-      <c r="B20" s="55"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="25">
         <v>0.57291666666666663</v>
       </c>
@@ -2044,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2152,7 +2158,9 @@
       <c r="H7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="J7" s="12"/>
       <c r="M7" s="10"/>
     </row>
@@ -2161,16 +2169,28 @@
       <c r="B8" s="16">
         <v>41102</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="25">
+        <v>0.33402777777777781</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.36388888888888887</v>
+      </c>
       <c r="E8" s="26">
         <f t="shared" ref="E8:E18" si="0">D8-C8</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+        <v>2.9861111111111061E-2</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="J8" s="12"/>
       <c r="M8" s="10"/>
     </row>
@@ -2181,16 +2201,28 @@
       <c r="B9" s="16">
         <v>41103</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="25">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.53125</v>
+      </c>
       <c r="E9" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+        <v>0.11458333333333331</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="J9" s="12"/>
       <c r="M9" s="10"/>
     </row>
@@ -2199,8 +2231,8 @@
       <c r="B10" s="16">
         <v>41104</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2217,8 +2249,8 @@
       <c r="B11" s="16">
         <v>41105</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2289,8 +2321,8 @@
       <c r="B15" s="16">
         <v>41109</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2306,8 +2338,8 @@
       <c r="B16" s="16">
         <v>41110</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="26">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>Week</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>Continus</t>
+  </si>
+  <si>
+    <t>Team Meeting</t>
+  </si>
+  <si>
+    <t>Architecture Design</t>
   </si>
 </sst>
 </file>
@@ -182,7 +188,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +212,17 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -321,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -499,6 +516,23 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2051,7 +2085,7 @@
   <dimension ref="A2:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2166,7 +2200,7 @@
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="13"/>
-      <c r="B8" s="16">
+      <c r="B8" s="57">
         <v>41102</v>
       </c>
       <c r="C8" s="25">
@@ -2198,9 +2232,7 @@
       <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="16">
-        <v>41103</v>
-      </c>
+      <c r="B9" s="58"/>
       <c r="C9" s="25">
         <v>0.41666666666666669</v>
       </c>
@@ -2226,28 +2258,32 @@
       <c r="J9" s="12"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="16">
-        <v>41104</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="26">
+    <row r="10" spans="1:13" s="68" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A10" s="64"/>
+      <c r="B10" s="65">
+        <v>41103</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="M10" s="10"/>
+      <c r="F10" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="M10" s="69"/>
     </row>
     <row r="11" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A11" s="36"/>
       <c r="B11" s="16">
-        <v>41105</v>
+        <v>41104</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -2265,7 +2301,7 @@
     <row r="12" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A12" s="13"/>
       <c r="B12" s="16">
-        <v>41106</v>
+        <v>41105</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -2283,7 +2319,7 @@
     <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A13" s="37"/>
       <c r="B13" s="16">
-        <v>41107</v>
+        <v>41106</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -2302,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="16">
-        <v>41108</v>
+        <v>41107</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
@@ -2319,7 +2355,7 @@
     <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A15" s="37"/>
       <c r="B15" s="16">
-        <v>41109</v>
+        <v>41108</v>
       </c>
       <c r="C15" s="55"/>
       <c r="D15" s="55"/>
@@ -2336,7 +2372,7 @@
     <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A16" s="36"/>
       <c r="B16" s="16">
-        <v>41110</v>
+        <v>41109</v>
       </c>
       <c r="C16" s="56"/>
       <c r="D16" s="56"/>
@@ -2353,7 +2389,7 @@
     <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A17" s="13"/>
       <c r="B17" s="16">
-        <v>41111</v>
+        <v>41110</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -2371,7 +2407,7 @@
     <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A18" s="13"/>
       <c r="B18" s="16">
-        <v>41112</v>
+        <v>41111</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -2390,7 +2426,9 @@
       <c r="A19" s="13">
         <v>3</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="16">
+        <v>41112</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="31"/>
@@ -2944,6 +2982,9 @@
       <c r="J61" s="49"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="SEP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
   <si>
     <t>Week</t>
   </si>
@@ -179,6 +179,21 @@
   </si>
   <si>
     <t>Architecture Design</t>
+  </si>
+  <si>
+    <t>Requirement (Design GUI)</t>
+  </si>
+  <si>
+    <t>Research "How to read barcode?"</t>
+  </si>
+  <si>
+    <t>"MRBS-v5.2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Gui for Read barcode </t>
+  </si>
+  <si>
+    <t>Code gui for MainForm</t>
   </si>
 </sst>
 </file>
@@ -498,6 +513,23 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -516,23 +548,6 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -841,7 +856,7 @@
     <col min="4" max="4" width="10.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" style="2" customWidth="1"/>
     <col min="10" max="10" width="16.140625" style="2" customWidth="1"/>
@@ -922,9 +937,7 @@
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A7" s="59">
-        <v>1</v>
-      </c>
+      <c r="A7" s="66"/>
       <c r="B7" s="14">
         <v>41050</v>
       </c>
@@ -955,7 +968,7 @@
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A8" s="60"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="51">
         <v>41051</v>
       </c>
@@ -986,8 +999,8 @@
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A9" s="60"/>
-      <c r="B9" s="57">
+      <c r="A9" s="67"/>
+      <c r="B9" s="64">
         <v>41054</v>
       </c>
       <c r="C9" s="25">
@@ -1017,8 +1030,8 @@
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A10" s="60"/>
-      <c r="B10" s="58"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="25">
         <v>0.67361111111111116</v>
       </c>
@@ -1043,7 +1056,7 @@
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="60"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="51">
         <v>41056</v>
       </c>
@@ -1074,9 +1087,7 @@
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="59">
-        <v>2</v>
-      </c>
+      <c r="A12" s="66"/>
       <c r="B12" s="14">
         <v>41057</v>
       </c>
@@ -1107,7 +1118,7 @@
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="60"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="50">
         <v>41058</v>
       </c>
@@ -1138,8 +1149,8 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="95.25" thickBot="1">
-      <c r="A14" s="60"/>
-      <c r="B14" s="57">
+      <c r="A14" s="67"/>
+      <c r="B14" s="64">
         <v>41059</v>
       </c>
       <c r="C14" s="25">
@@ -1171,8 +1182,8 @@
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="95.25" thickBot="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="25">
         <v>0.16111111111111112</v>
       </c>
@@ -1202,8 +1213,8 @@
       <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="32.25" thickBot="1">
-      <c r="A16" s="60"/>
-      <c r="B16" s="57">
+      <c r="A16" s="67"/>
+      <c r="B16" s="64">
         <v>41062</v>
       </c>
       <c r="C16" s="25">
@@ -1235,8 +1246,8 @@
       <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="32.25" thickBot="1">
-      <c r="A17" s="60"/>
-      <c r="B17" s="62"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="25">
         <v>0.39583333333333331</v>
       </c>
@@ -1263,8 +1274,8 @@
       <c r="M17" s="10"/>
     </row>
     <row r="18" spans="1:13" ht="32.25" thickBot="1">
-      <c r="A18" s="61"/>
-      <c r="B18" s="58"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="25">
         <v>0.52777777777777779</v>
       </c>
@@ -1292,7 +1303,7 @@
     </row>
     <row r="19" spans="1:13" ht="30.75" customHeight="1" thickBot="1">
       <c r="A19" s="52"/>
-      <c r="B19" s="57">
+      <c r="B19" s="64">
         <v>40735</v>
       </c>
       <c r="C19" s="25">
@@ -1320,9 +1331,9 @@
       <c r="J19" s="12"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="20" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
       <c r="A20" s="52"/>
-      <c r="B20" s="58"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="25">
         <v>0.57291666666666663</v>
       </c>
@@ -1348,98 +1359,176 @@
       <c r="J20" s="12"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="21" spans="1:13" ht="32.25" thickBot="1">
       <c r="A21" s="53"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="B21" s="14">
+        <v>41113</v>
+      </c>
+      <c r="C21" s="27">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D21" s="27">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+        <v>0.22916666666666674</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="22" spans="1:13" ht="32.25" thickBot="1">
       <c r="A22" s="13"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="B22" s="64">
+        <v>41114</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D22" s="25">
+        <v>0.70416666666666661</v>
+      </c>
       <c r="E22" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="J22" s="12"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="23" spans="1:13" ht="32.25" thickBot="1">
       <c r="A23" s="13"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="25">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D23" s="25">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="E23" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="J23" s="12"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="24" spans="1:13" ht="32.25" thickBot="1">
       <c r="A24" s="13"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="B24" s="16">
+        <v>41115</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0.22291666666666665</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0.25</v>
+      </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
+        <v>2.7083333333333348E-2</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="J24" s="12"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="25" spans="1:13" ht="32.25" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="16"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="C25" s="25">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D25" s="25">
+        <v>0.55694444444444446</v>
+      </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
+        <v>9.8611111111111149E-2</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="J25" s="12"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="26" spans="1:13" ht="32.25" thickBot="1">
       <c r="A26" s="24"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="C26" s="25">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D26" s="25">
+        <v>0.83194444444444438</v>
+      </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
+        <v>0.12361111111111101</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="J26" s="12"/>
       <c r="M26" s="10"/>
     </row>
@@ -1708,9 +1797,7 @@
       <c r="M43" s="10"/>
     </row>
     <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A44" s="13">
-        <v>7</v>
-      </c>
+      <c r="A44" s="13"/>
       <c r="B44" s="16"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -2067,7 +2154,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:J6"/>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B9:B10"/>
@@ -2084,7 +2172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -2200,7 +2288,7 @@
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="13"/>
-      <c r="B8" s="57">
+      <c r="B8" s="64">
         <v>41102</v>
       </c>
       <c r="C8" s="25">
@@ -2232,7 +2320,7 @@
       <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="58"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="25">
         <v>0.41666666666666669</v>
       </c>
@@ -2258,27 +2346,27 @@
       <c r="J9" s="12"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" s="68" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A10" s="64"/>
-      <c r="B10" s="65">
+    <row r="10" spans="1:13" s="62" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A10" s="58"/>
+      <c r="B10" s="59">
         <v>41103</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67">
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="M10" s="69"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A11" s="36"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="58">
   <si>
     <t>Week</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>Code gui for MainForm</t>
+  </si>
+  <si>
+    <t>Unit code</t>
   </si>
 </sst>
 </file>
@@ -844,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1448,7 +1451,7 @@
     </row>
     <row r="24" spans="1:13" ht="32.25" thickBot="1">
       <c r="A24" s="13"/>
-      <c r="B24" s="16">
+      <c r="B24" s="64">
         <v>41115</v>
       </c>
       <c r="C24" s="25">
@@ -1478,7 +1481,7 @@
     </row>
     <row r="25" spans="1:13" ht="32.25" thickBot="1">
       <c r="A25" s="13"/>
-      <c r="B25" s="16"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="25">
         <v>0.45833333333333331</v>
       </c>
@@ -1506,7 +1509,7 @@
     </row>
     <row r="26" spans="1:13" ht="32.25" thickBot="1">
       <c r="A26" s="24"/>
-      <c r="B26" s="16"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="25">
         <v>0.70833333333333337</v>
       </c>
@@ -1527,24 +1530,36 @@
         <v>54</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26" s="12"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="27" spans="1:13" ht="32.25" thickBot="1">
       <c r="A27" s="13"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="16">
+        <v>41116</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0.72499999999999998</v>
+      </c>
       <c r="D27" s="25"/>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
+        <v>-0.72499999999999998</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="J27" s="12"/>
       <c r="M27" s="10"/>
     </row>
@@ -2154,7 +2169,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:J6"/>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B24:B26"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A7:A11"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
@@ -536,6 +536,9 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -547,9 +550,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,7 +848,7 @@
   <dimension ref="A2:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -940,7 +940,7 @@
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A7" s="66"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="14">
         <v>41050</v>
       </c>
@@ -971,7 +971,7 @@
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A8" s="67"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="51">
         <v>41051</v>
       </c>
@@ -1002,7 +1002,7 @@
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A9" s="67"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="64">
         <v>41054</v>
       </c>
@@ -1033,8 +1033,8 @@
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A10" s="67"/>
-      <c r="B10" s="65"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="25">
         <v>0.67361111111111116</v>
       </c>
@@ -1059,7 +1059,7 @@
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="67"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="51">
         <v>41056</v>
       </c>
@@ -1090,7 +1090,7 @@
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="66"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="14">
         <v>41057</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="67"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="50">
         <v>41058</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="95.25" thickBot="1">
-      <c r="A14" s="67"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="64">
         <v>41059</v>
       </c>
@@ -1185,8 +1185,8 @@
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="95.25" thickBot="1">
-      <c r="A15" s="67"/>
-      <c r="B15" s="65"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="25">
         <v>0.16111111111111112</v>
       </c>
@@ -1216,7 +1216,7 @@
       <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="32.25" thickBot="1">
-      <c r="A16" s="67"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="64">
         <v>41062</v>
       </c>
@@ -1249,8 +1249,8 @@
       <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="32.25" thickBot="1">
-      <c r="A17" s="67"/>
-      <c r="B17" s="69"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="25">
         <v>0.39583333333333331</v>
       </c>
@@ -1277,8 +1277,8 @@
       <c r="M17" s="10"/>
     </row>
     <row r="18" spans="1:13" ht="32.25" thickBot="1">
-      <c r="A18" s="68"/>
-      <c r="B18" s="65"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="25">
         <v>0.52777777777777779</v>
       </c>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
       <c r="A20" s="52"/>
-      <c r="B20" s="65"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="25">
         <v>0.57291666666666663</v>
       </c>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="23" spans="1:13" ht="32.25" thickBot="1">
       <c r="A23" s="13"/>
-      <c r="B23" s="65"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="25">
         <v>0.70833333333333337</v>
       </c>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="25" spans="1:13" ht="32.25" thickBot="1">
       <c r="A25" s="13"/>
-      <c r="B25" s="69"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="25">
         <v>0.45833333333333331</v>
       </c>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="26" spans="1:13" ht="32.25" thickBot="1">
       <c r="A26" s="24"/>
-      <c r="B26" s="65"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="25">
         <v>0.70833333333333337</v>
       </c>
@@ -1543,10 +1543,12 @@
       <c r="C27" s="25">
         <v>0.72499999999999998</v>
       </c>
-      <c r="D27" s="25"/>
+      <c r="D27" s="25">
+        <v>0.8534722222222223</v>
+      </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>-0.72499999999999998</v>
+        <v>0.12847222222222232</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>52</v>
@@ -2336,7 +2338,7 @@
       <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="25">
         <v>0.41666666666666669</v>
       </c>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
   <si>
     <t>Week</t>
   </si>
@@ -196,7 +196,10 @@
     <t>Code gui for MainForm</t>
   </si>
   <si>
-    <t>Unit code</t>
+    <t>Unit test</t>
+  </si>
+  <si>
+    <t>Rework code gui MainForm</t>
   </si>
 </sst>
 </file>
@@ -356,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -387,12 +390,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -411,12 +408,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -426,18 +417,12 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -495,12 +480,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -533,12 +512,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -550,6 +529,69 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M66"/>
+  <dimension ref="A2:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -940,1238 +982,1294 @@
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A7" s="67"/>
-      <c r="B7" s="14">
+      <c r="A7" s="59"/>
+      <c r="B7" s="62">
         <v>41050</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="63">
         <v>0.4375</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="63">
         <v>0.51388888888888895</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="63">
         <f t="shared" ref="E7:E13" si="0">D7-C7</f>
         <v>7.6388888888888951E-2</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12" t="s">
+      <c r="H7" s="64"/>
+      <c r="I7" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="64"/>
       <c r="L7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A8" s="68"/>
-      <c r="B8" s="51">
+      <c r="A8" s="60"/>
+      <c r="B8" s="65">
         <v>41051</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="63">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="63">
         <v>0.59027777777777779</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="63">
         <f t="shared" si="0"/>
         <v>0.13194444444444448</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12" t="s">
+      <c r="H8" s="64"/>
+      <c r="I8" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="12"/>
+      <c r="J8" s="64"/>
       <c r="L8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A9" s="68"/>
-      <c r="B9" s="64">
+      <c r="A9" s="60"/>
+      <c r="B9" s="66">
         <v>41054</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="63">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="63">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="63">
         <f t="shared" si="0"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12" t="s">
+      <c r="H9" s="64"/>
+      <c r="I9" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="64"/>
       <c r="L9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A10" s="68"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="25">
+      <c r="A10" s="60"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="63">
         <v>0.67361111111111116</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="63">
         <v>0.72222222222222221</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="63">
         <f t="shared" si="0"/>
         <v>4.8611111111111049E-2</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12" t="s">
+      <c r="H10" s="64"/>
+      <c r="I10" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="12"/>
+      <c r="J10" s="64"/>
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="68"/>
-      <c r="B11" s="51">
+      <c r="A11" s="60"/>
+      <c r="B11" s="65">
         <v>41056</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="63">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="63">
         <v>0.52430555555555558</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="63">
         <f t="shared" si="0"/>
         <v>9.375E-2</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12" t="s">
+      <c r="H11" s="64"/>
+      <c r="I11" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="12"/>
+      <c r="J11" s="64"/>
       <c r="L11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="67"/>
-      <c r="B12" s="14">
+      <c r="A12" s="59"/>
+      <c r="B12" s="62">
         <v>41057</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="63">
         <v>0.40277777777777773</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="63">
         <v>0.46180555555555558</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="63">
         <f t="shared" si="0"/>
         <v>5.9027777777777846E-2</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12" t="s">
+      <c r="H12" s="64"/>
+      <c r="I12" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="12"/>
+      <c r="J12" s="64"/>
       <c r="L12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="68"/>
-      <c r="B13" s="50">
+      <c r="A13" s="60"/>
+      <c r="B13" s="68">
         <v>41058</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="63">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="63">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="63">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12" t="s">
+      <c r="H13" s="64"/>
+      <c r="I13" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="64"/>
       <c r="L13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="95.25" thickBot="1">
-      <c r="A14" s="68"/>
-      <c r="B14" s="64">
+      <c r="A14" s="60"/>
+      <c r="B14" s="66">
         <v>41059</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="63">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="63">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="63">
         <f>D14-C14</f>
         <v>3.125E-2</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="J14" s="64"/>
       <c r="L14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="95.25" thickBot="1">
-      <c r="A15" s="68"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="63">
         <v>0.16111111111111112</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="63">
         <v>0.27083333333333331</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="63">
         <f>D15-C15</f>
         <v>0.10972222222222219</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="12"/>
+      <c r="J15" s="64"/>
       <c r="L15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="32.25" thickBot="1">
-      <c r="A16" s="68"/>
-      <c r="B16" s="64">
+      <c r="A16" s="60"/>
+      <c r="B16" s="66">
         <v>41062</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="63">
         <v>3.8194444444444441E-2</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="63">
         <v>0.34722222222222227</v>
       </c>
-      <c r="E16" s="26">
-        <f t="shared" ref="E16:E66" si="1">D16-C16</f>
+      <c r="E16" s="63">
+        <f t="shared" ref="E16:E67" si="1">D16-C16</f>
         <v>0.30902777777777785</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="12"/>
+      <c r="J16" s="64"/>
       <c r="L16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="32.25" thickBot="1">
-      <c r="A17" s="68"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="25">
+      <c r="A17" s="60"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="63">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="63">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="63">
         <f t="shared" si="1"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="12"/>
+      <c r="J17" s="64"/>
       <c r="M17" s="10"/>
     </row>
     <row r="18" spans="1:13" ht="32.25" thickBot="1">
-      <c r="A18" s="69"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="25">
+      <c r="A18" s="61"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="63">
         <v>0.52777777777777779</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="63">
         <v>0.63194444444444442</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="63">
         <f t="shared" ref="E18" si="2">D18-C18</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="12"/>
+      <c r="J18" s="64"/>
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A19" s="52"/>
-      <c r="B19" s="64">
+      <c r="A19" s="44"/>
+      <c r="B19" s="66">
         <v>40735</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="63">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="63">
         <v>0.5</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="63">
         <f t="shared" si="1"/>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="12"/>
+      <c r="J19" s="64"/>
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A20" s="52"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="63">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="63">
         <v>0.62291666666666667</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="63">
         <f t="shared" si="1"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="12"/>
+      <c r="J20" s="64"/>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" ht="32.25" thickBot="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="14">
+      <c r="A21" s="45"/>
+      <c r="B21" s="62">
         <v>41113</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="70">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="70">
         <v>0.77083333333333337</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="63">
         <f t="shared" si="1"/>
         <v>0.22916666666666674</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="15"/>
+      <c r="J21" s="71"/>
     </row>
     <row r="22" spans="1:13" ht="32.25" thickBot="1">
       <c r="A22" s="13"/>
-      <c r="B22" s="64">
+      <c r="B22" s="66">
         <v>41114</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="63">
         <v>0.54861111111111105</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="63">
         <v>0.70416666666666661</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="63">
         <f t="shared" si="1"/>
         <v>0.15555555555555556</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="12"/>
+      <c r="J22" s="64"/>
       <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13" ht="32.25" thickBot="1">
       <c r="A23" s="13"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="25">
+      <c r="B23" s="67"/>
+      <c r="C23" s="63">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="63">
         <v>0.79166666666666663</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="63">
         <f t="shared" si="1"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="12"/>
+      <c r="J23" s="64"/>
       <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" ht="32.25" thickBot="1">
       <c r="A24" s="13"/>
-      <c r="B24" s="64">
+      <c r="B24" s="66">
         <v>41115</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="63">
         <v>0.22291666666666665</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="63">
         <v>0.25</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="63">
         <f t="shared" si="1"/>
         <v>2.7083333333333348E-2</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="12"/>
+      <c r="J24" s="64"/>
       <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:13" ht="32.25" thickBot="1">
       <c r="A25" s="13"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="25">
+      <c r="B25" s="69"/>
+      <c r="C25" s="63">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="63">
         <v>0.55694444444444446</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="63">
         <f t="shared" si="1"/>
         <v>9.8611111111111149E-2</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="12"/>
+      <c r="J25" s="64"/>
       <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" ht="32.25" thickBot="1">
-      <c r="A26" s="24"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="63">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="63">
         <v>0.83194444444444438</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="63">
         <f t="shared" si="1"/>
         <v>0.12361111111111101</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="12"/>
+      <c r="J26" s="64"/>
       <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13" ht="32.25" thickBot="1">
       <c r="A27" s="13"/>
-      <c r="B27" s="16">
+      <c r="B27" s="72">
         <v>41116</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="63">
         <v>0.72499999999999998</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="63">
         <v>0.8534722222222223</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="63">
         <f t="shared" si="1"/>
         <v>0.12847222222222232</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="J27" s="12"/>
+      <c r="J27" s="64"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="28" spans="1:13" ht="32.25" thickBot="1">
       <c r="A28" s="13"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-    </row>
-    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A29" s="13"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B28" s="66">
+        <v>41117</v>
+      </c>
+      <c r="C28" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="73">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E28" s="63">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="F28" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="74"/>
+    </row>
+    <row r="29" spans="1:13" ht="32.25" thickBot="1">
+      <c r="A29" s="56"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="75">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D29" s="75">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E29" s="70">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F29" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="76"/>
+    </row>
+    <row r="30" spans="1:13" ht="32.25" thickBot="1">
       <c r="A30" s="13"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
+      <c r="B30" s="65">
+        <v>41118</v>
+      </c>
+      <c r="C30" s="77">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="D30" s="77">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E30" s="63">
+        <f t="shared" si="1"/>
+        <v>2.916666666666673E-2</v>
+      </c>
+      <c r="F30" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="78"/>
     </row>
     <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A31" s="24"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
     </row>
     <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="M32" s="10"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
     </row>
     <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="13"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
       <c r="M33" s="10"/>
     </row>
     <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="13"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
       <c r="M34" s="10"/>
     </row>
     <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A35" s="13"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
       <c r="M35" s="10"/>
     </row>
     <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A36" s="24"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
       <c r="M36" s="10"/>
     </row>
     <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
       <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="13"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="M38" s="10"/>
     </row>
     <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A39" s="13"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
     </row>
     <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="13"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
     </row>
     <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
     </row>
     <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A42" s="13"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="M42" s="10"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
     </row>
     <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A43" s="13"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
       <c r="M43" s="10"/>
     </row>
     <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A44" s="13"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
       <c r="M44" s="10"/>
     </row>
     <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A45" s="13"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
       <c r="M45" s="10"/>
     </row>
     <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="24"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
       <c r="M46" s="10"/>
     </row>
     <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A47" s="13"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
       <c r="M47" s="10"/>
     </row>
     <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="13"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="M48" s="10"/>
     </row>
     <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="13"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
     </row>
     <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="13"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
     </row>
     <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A51" s="24"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="81"/>
     </row>
     <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A52" s="13"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="M52" s="10"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="71"/>
     </row>
     <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A53" s="13"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="M53" s="10"/>
     </row>
     <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="13"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
     </row>
     <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A55" s="13"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="78"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="78"/>
     </row>
     <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A56" s="24"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="81"/>
     </row>
     <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A57" s="13"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="M57" s="10"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="71"/>
     </row>
     <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A58" s="13"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
       <c r="M58" s="10"/>
     </row>
     <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A59" s="13"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
       <c r="M59" s="10"/>
     </row>
     <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A60" s="13"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
       <c r="M60" s="10"/>
     </row>
     <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A61" s="24"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
       <c r="M61" s="10"/>
     </row>
     <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A62" s="13"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
       <c r="M62" s="10"/>
     </row>
     <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A63" s="13"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="M63" s="10"/>
     </row>
     <row r="64" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A64" s="13"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="74"/>
+      <c r="J64" s="74"/>
     </row>
     <row r="65" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A65" s="13"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="78"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="79"/>
+      <c r="I65" s="78"/>
+      <c r="J65" s="78"/>
     </row>
     <row r="66" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A66" s="24"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="81"/>
+      <c r="G66" s="81"/>
+      <c r="H66" s="81"/>
+      <c r="I66" s="81"/>
+      <c r="J66" s="81"/>
+    </row>
+    <row r="67" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A67" s="20"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="71"/>
+      <c r="J67" s="71"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:J6"/>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B19:B20"/>
@@ -2276,16 +2374,16 @@
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A7" s="13"/>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>41101</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="21">
         <v>0.70347222222222217</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="21">
         <v>0.77083333333333337</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="22">
         <f>D7-C7</f>
         <v>6.7361111111111205E-2</v>
       </c>
@@ -2306,16 +2404,16 @@
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="13"/>
-      <c r="B8" s="64">
+      <c r="B8" s="57">
         <v>41102</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="21">
         <v>0.33402777777777781</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="21">
         <v>0.36388888888888887</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="22">
         <f t="shared" ref="E8:E18" si="0">D8-C8</f>
         <v>2.9861111111111061E-2</v>
       </c>
@@ -2338,14 +2436,14 @@
       <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="25">
+      <c r="B9" s="58"/>
+      <c r="C9" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="21">
         <v>0.53125</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="22">
         <f t="shared" si="0"/>
         <v>0.11458333333333331</v>
       </c>
@@ -2364,54 +2462,54 @@
       <c r="J9" s="12"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" s="62" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59">
+    <row r="10" spans="1:13" s="54" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A10" s="50"/>
+      <c r="B10" s="51">
         <v>41103</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61">
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="M10" s="63"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="M10" s="55"/>
     </row>
     <row r="11" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="16">
+      <c r="A11" s="30"/>
+      <c r="B11" s="14">
         <v>41104</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="26">
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A12" s="13"/>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>41105</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2423,83 +2521,83 @@
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="16">
+      <c r="A13" s="31"/>
+      <c r="B13" s="14">
         <v>41106</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="26">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A14" s="13">
         <v>2</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <v>41107</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="26">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="16">
+      <c r="A15" s="31"/>
+      <c r="B15" s="14">
         <v>41108</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="26">
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
     </row>
     <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A16" s="36"/>
-      <c r="B16" s="16">
+      <c r="A16" s="30"/>
+      <c r="B16" s="14">
         <v>41109</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="26">
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A17" s="13"/>
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <v>41110</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2512,12 +2610,12 @@
     </row>
     <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A18" s="13"/>
-      <c r="B18" s="16">
+      <c r="B18" s="14">
         <v>41111</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2532,12 +2630,12 @@
       <c r="A19" s="13">
         <v>3</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="14">
         <v>41112</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="31"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -2547,36 +2645,36 @@
     </row>
     <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A20" s="13"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="36"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
       <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A22" s="13"/>
-      <c r="B22" s="16"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="31"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -2585,61 +2683,61 @@
       <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A24" s="13">
         <v>4</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
     </row>
     <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
     </row>
     <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A27" s="13"/>
-      <c r="B27" s="16"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="31"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -2649,10 +2747,10 @@
     </row>
     <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A28" s="13"/>
-      <c r="B28" s="16"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="31"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -2664,10 +2762,10 @@
       <c r="A29" s="13">
         <v>5</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="31"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -2677,36 +2775,36 @@
     </row>
     <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="13"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
       <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A31" s="36"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
       <c r="M31" s="10"/>
     </row>
     <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="13"/>
-      <c r="B32" s="16"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="31"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -2715,61 +2813,61 @@
       <c r="M32" s="10"/>
     </row>
     <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
       <c r="H33" s="12"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
     </row>
     <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="13">
         <v>6</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
     </row>
     <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A35" s="37"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
     </row>
     <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A36" s="36"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
     </row>
     <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="13"/>
-      <c r="B37" s="16"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="31"/>
+      <c r="E37" s="25"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -2779,10 +2877,10 @@
     </row>
     <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="13"/>
-      <c r="B38" s="16"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="31"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
@@ -2794,10 +2892,10 @@
       <c r="A39" s="13">
         <v>7</v>
       </c>
-      <c r="B39" s="16"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="31"/>
+      <c r="E39" s="25"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
@@ -2807,36 +2905,36 @@
     </row>
     <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="13"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
       <c r="M40" s="10"/>
     </row>
     <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="36"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
       <c r="M41" s="10"/>
     </row>
     <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="13"/>
-      <c r="B42" s="16"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
-      <c r="E42" s="31"/>
+      <c r="E42" s="25"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -2845,61 +2943,61 @@
       <c r="M42" s="10"/>
     </row>
     <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A43" s="37"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
       <c r="H43" s="12"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
     </row>
     <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A44" s="13">
         <v>8</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
     </row>
     <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A45" s="37"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
     </row>
     <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="36"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
     </row>
     <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A47" s="13"/>
-      <c r="B47" s="16"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="31"/>
+      <c r="E47" s="25"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -2908,61 +3006,61 @@
       <c r="M47" s="10"/>
     </row>
     <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="37"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
       <c r="H48" s="12"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
     </row>
     <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="13">
         <v>9</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
     </row>
     <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A50" s="37"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
     </row>
     <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A51" s="36"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
     </row>
     <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A52" s="13"/>
-      <c r="B52" s="16"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="31"/>
+      <c r="E52" s="25"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -2972,10 +3070,10 @@
     </row>
     <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A53" s="13"/>
-      <c r="B53" s="16"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
-      <c r="E53" s="31"/>
+      <c r="E53" s="25"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -2987,10 +3085,10 @@
       <c r="A54" s="13">
         <v>10</v>
       </c>
-      <c r="B54" s="16"/>
+      <c r="B54" s="14"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
-      <c r="E54" s="31"/>
+      <c r="E54" s="25"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
@@ -3000,36 +3098,36 @@
     </row>
     <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A55" s="13"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
       <c r="M55" s="10"/>
     </row>
     <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A56" s="36"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
       <c r="M56" s="10"/>
     </row>
     <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A57" s="13"/>
-      <c r="B57" s="16"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
-      <c r="E57" s="31"/>
+      <c r="E57" s="25"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -3038,54 +3136,54 @@
       <c r="M57" s="10"/>
     </row>
     <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A58" s="37"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
       <c r="H58" s="12"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
     </row>
     <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A59" s="13">
         <v>11</v>
       </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
     </row>
     <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A60" s="37"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
     </row>
     <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A61" s="36"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
   <si>
     <t>Week</t>
   </si>
@@ -181,9 +181,6 @@
     <t>Architecture Design</t>
   </si>
   <si>
-    <t>Requirement (Design GUI)</t>
-  </si>
-  <si>
     <t>Research "How to read barcode?"</t>
   </si>
   <si>
@@ -200,6 +197,10 @@
   </si>
   <si>
     <t>Rework code gui MainForm</t>
+  </si>
+  <si>
+    <t>Implement 
+Function "loadNgayCuaTuanHienTai()"</t>
   </si>
 </sst>
 </file>
@@ -515,83 +516,83 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -890,7 +891,7 @@
   <dimension ref="A2:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -900,7 +901,7 @@
     <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="31.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" style="2" customWidth="1"/>
@@ -982,1289 +983,1303 @@
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="62">
+      <c r="A7" s="78"/>
+      <c r="B7" s="57">
         <v>41050</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="58">
         <v>0.4375</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="58">
         <v>0.51388888888888895</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="58">
         <f t="shared" ref="E7:E13" si="0">D7-C7</f>
         <v>7.6388888888888951E-2</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64" t="s">
+      <c r="H7" s="59"/>
+      <c r="I7" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="64"/>
+      <c r="J7" s="59"/>
       <c r="L7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="65">
+      <c r="A8" s="79"/>
+      <c r="B8" s="60">
         <v>41051</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="58">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="58">
         <v>0.59027777777777779</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="58">
         <f t="shared" si="0"/>
         <v>0.13194444444444448</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64" t="s">
+      <c r="H8" s="59"/>
+      <c r="I8" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="64"/>
+      <c r="J8" s="59"/>
       <c r="L8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A9" s="60"/>
-      <c r="B9" s="66">
+      <c r="A9" s="79"/>
+      <c r="B9" s="75">
         <v>41054</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="58">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="58">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="58">
         <f t="shared" si="0"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64" t="s">
+      <c r="H9" s="59"/>
+      <c r="I9" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="64"/>
+      <c r="J9" s="59"/>
       <c r="L9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A10" s="60"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="63">
+      <c r="A10" s="79"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="58">
         <v>0.67361111111111116</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="58">
         <v>0.72222222222222221</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="58">
         <f t="shared" si="0"/>
         <v>4.8611111111111049E-2</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64" t="s">
+      <c r="H10" s="59"/>
+      <c r="I10" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="64"/>
+      <c r="J10" s="59"/>
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="65">
+      <c r="A11" s="79"/>
+      <c r="B11" s="60">
         <v>41056</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="58">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="58">
         <v>0.52430555555555558</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="58">
         <f t="shared" si="0"/>
         <v>9.375E-2</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="64" t="s">
+      <c r="G11" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64" t="s">
+      <c r="H11" s="59"/>
+      <c r="I11" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="64"/>
+      <c r="J11" s="59"/>
       <c r="L11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="59"/>
-      <c r="B12" s="62">
+      <c r="A12" s="78"/>
+      <c r="B12" s="57">
         <v>41057</v>
       </c>
-      <c r="C12" s="63">
+      <c r="C12" s="58">
         <v>0.40277777777777773</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="58">
         <v>0.46180555555555558</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="58">
         <f t="shared" si="0"/>
         <v>5.9027777777777846E-2</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="64" t="s">
+      <c r="G12" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64" t="s">
+      <c r="H12" s="59"/>
+      <c r="I12" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="64"/>
+      <c r="J12" s="59"/>
       <c r="L12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="68">
+      <c r="A13" s="79"/>
+      <c r="B13" s="61">
         <v>41058</v>
       </c>
-      <c r="C13" s="63">
+      <c r="C13" s="58">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D13" s="63">
+      <c r="D13" s="58">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="58">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="64" t="s">
+      <c r="G13" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64" t="s">
+      <c r="H13" s="59"/>
+      <c r="I13" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="64"/>
+      <c r="J13" s="59"/>
       <c r="L13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="95.25" thickBot="1">
-      <c r="A14" s="60"/>
-      <c r="B14" s="66">
+      <c r="A14" s="79"/>
+      <c r="B14" s="75">
         <v>41059</v>
       </c>
-      <c r="C14" s="63">
+      <c r="C14" s="58">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="58">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="58">
         <f>D14-C14</f>
         <v>3.125E-2</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="64" t="s">
+      <c r="H14" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="64" t="s">
+      <c r="I14" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="64"/>
+      <c r="J14" s="59"/>
       <c r="L14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="95.25" thickBot="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="63">
+      <c r="A15" s="79"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="58">
         <v>0.16111111111111112</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="58">
         <v>0.27083333333333331</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="58">
         <f>D15-C15</f>
         <v>0.10972222222222219</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="64" t="s">
+      <c r="H15" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="64" t="s">
+      <c r="I15" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="64"/>
+      <c r="J15" s="59"/>
       <c r="L15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="32.25" thickBot="1">
-      <c r="A16" s="60"/>
-      <c r="B16" s="66">
+      <c r="A16" s="79"/>
+      <c r="B16" s="75">
         <v>41062</v>
       </c>
-      <c r="C16" s="63">
+      <c r="C16" s="58">
         <v>3.8194444444444441E-2</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="58">
         <v>0.34722222222222227</v>
       </c>
-      <c r="E16" s="63">
+      <c r="E16" s="58">
         <f t="shared" ref="E16:E67" si="1">D16-C16</f>
         <v>0.30902777777777785</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="64" t="s">
+      <c r="G16" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="64" t="s">
+      <c r="H16" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="64" t="s">
+      <c r="I16" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="64"/>
+      <c r="J16" s="59"/>
       <c r="L16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="32.25" thickBot="1">
-      <c r="A17" s="60"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="63">
+      <c r="A17" s="79"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="58">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="58">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E17" s="63">
+      <c r="E17" s="58">
         <f t="shared" si="1"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="F17" s="64" t="s">
+      <c r="F17" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="64" t="s">
+      <c r="G17" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="64" t="s">
+      <c r="I17" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="64"/>
+      <c r="J17" s="59"/>
       <c r="M17" s="10"/>
     </row>
     <row r="18" spans="1:13" ht="32.25" thickBot="1">
-      <c r="A18" s="61"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="63">
+      <c r="A18" s="80"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="58">
         <v>0.52777777777777779</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="58">
         <v>0.63194444444444442</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="58">
         <f t="shared" ref="E18" si="2">D18-C18</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="F18" s="64" t="s">
+      <c r="F18" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="64" t="s">
+      <c r="G18" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="64" t="s">
+      <c r="H18" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="64" t="s">
+      <c r="I18" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="64"/>
+      <c r="J18" s="59"/>
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13" ht="30.75" customHeight="1" thickBot="1">
       <c r="A19" s="44"/>
-      <c r="B19" s="66">
+      <c r="B19" s="75">
         <v>40735</v>
       </c>
-      <c r="C19" s="63">
+      <c r="C19" s="58">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="58">
         <v>0.5</v>
       </c>
-      <c r="E19" s="63">
+      <c r="E19" s="58">
         <f t="shared" si="1"/>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="64" t="s">
+      <c r="H19" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="64" t="s">
+      <c r="I19" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="64"/>
+      <c r="J19" s="59"/>
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
       <c r="A20" s="44"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="63">
+      <c r="B20" s="76"/>
+      <c r="C20" s="58">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="58">
         <v>0.62291666666666667</v>
       </c>
-      <c r="E20" s="63">
+      <c r="E20" s="58">
         <f t="shared" si="1"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="64" t="s">
+      <c r="G20" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="64" t="s">
+      <c r="H20" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="64" t="s">
+      <c r="I20" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="64"/>
+      <c r="J20" s="59"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:13" ht="32.25" thickBot="1">
+    <row r="21" spans="1:13" ht="48" thickBot="1">
       <c r="A21" s="45"/>
-      <c r="B21" s="62">
+      <c r="B21" s="57">
         <v>41113</v>
       </c>
-      <c r="C21" s="70">
+      <c r="C21" s="62">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D21" s="70">
+      <c r="D21" s="62">
         <v>0.77083333333333337</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E21" s="58">
         <f t="shared" si="1"/>
         <v>0.22916666666666674</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="H21" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="71" t="s">
+      <c r="I21" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="71"/>
+      <c r="J21" s="63"/>
     </row>
     <row r="22" spans="1:13" ht="32.25" thickBot="1">
       <c r="A22" s="13"/>
-      <c r="B22" s="66">
+      <c r="B22" s="75">
         <v>41114</v>
       </c>
-      <c r="C22" s="63">
+      <c r="C22" s="58">
         <v>0.54861111111111105</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22" s="58">
         <v>0.70416666666666661</v>
       </c>
-      <c r="E22" s="63">
+      <c r="E22" s="58">
         <f t="shared" si="1"/>
         <v>0.15555555555555556</v>
       </c>
-      <c r="F22" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="71" t="s">
+      <c r="F22" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="64" t="s">
+      <c r="H22" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="64"/>
+      <c r="J22" s="59"/>
       <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13" ht="32.25" thickBot="1">
       <c r="A23" s="13"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="63">
+      <c r="B23" s="76"/>
+      <c r="C23" s="58">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="58">
         <v>0.79166666666666663</v>
       </c>
-      <c r="E23" s="63">
+      <c r="E23" s="58">
         <f t="shared" si="1"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="F23" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="I23" s="64" t="s">
+      <c r="F23" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="64"/>
+      <c r="J23" s="59"/>
       <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" ht="32.25" thickBot="1">
       <c r="A24" s="13"/>
-      <c r="B24" s="66">
+      <c r="B24" s="75">
         <v>41115</v>
       </c>
-      <c r="C24" s="63">
+      <c r="C24" s="58">
         <v>0.22291666666666665</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="58">
         <v>0.25</v>
       </c>
-      <c r="E24" s="63">
+      <c r="E24" s="58">
         <f t="shared" si="1"/>
         <v>2.7083333333333348E-2</v>
       </c>
-      <c r="F24" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="64" t="s">
+      <c r="F24" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="64"/>
+      <c r="J24" s="59"/>
       <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:13" ht="32.25" thickBot="1">
       <c r="A25" s="13"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="63">
+      <c r="B25" s="77"/>
+      <c r="C25" s="58">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D25" s="63">
+      <c r="D25" s="58">
         <v>0.55694444444444446</v>
       </c>
-      <c r="E25" s="63">
+      <c r="E25" s="58">
         <f t="shared" si="1"/>
         <v>9.8611111111111149E-2</v>
       </c>
-      <c r="F25" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="I25" s="64" t="s">
+      <c r="F25" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="64"/>
+      <c r="J25" s="59"/>
       <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" ht="32.25" thickBot="1">
       <c r="A26" s="20"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="63">
+      <c r="B26" s="76"/>
+      <c r="C26" s="58">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="58">
         <v>0.83194444444444438</v>
       </c>
-      <c r="E26" s="63">
+      <c r="E26" s="58">
         <f t="shared" si="1"/>
         <v>0.12361111111111101</v>
       </c>
-      <c r="F26" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="I26" s="64" t="s">
+      <c r="F26" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="64"/>
+      <c r="J26" s="59"/>
       <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13" ht="32.25" thickBot="1">
       <c r="A27" s="13"/>
-      <c r="B27" s="72">
+      <c r="B27" s="64">
         <v>41116</v>
       </c>
-      <c r="C27" s="63">
+      <c r="C27" s="58">
         <v>0.72499999999999998</v>
       </c>
-      <c r="D27" s="63">
+      <c r="D27" s="58">
         <v>0.8534722222222223</v>
       </c>
-      <c r="E27" s="63">
+      <c r="E27" s="58">
         <f t="shared" si="1"/>
         <v>0.12847222222222232</v>
       </c>
-      <c r="F27" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="64" t="s">
+      <c r="F27" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="J27" s="64"/>
+      <c r="J27" s="59"/>
       <c r="M27" s="10"/>
     </row>
     <row r="28" spans="1:13" ht="32.25" thickBot="1">
       <c r="A28" s="13"/>
-      <c r="B28" s="66">
+      <c r="B28" s="75">
         <v>41117</v>
       </c>
-      <c r="C28" s="73">
+      <c r="C28" s="65">
         <v>0.5</v>
       </c>
-      <c r="D28" s="73">
+      <c r="D28" s="65">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E28" s="63">
+      <c r="E28" s="58">
         <f t="shared" si="1"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="F28" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="74" t="s">
+      <c r="F28" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="I28" s="64" t="s">
+      <c r="G28" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="74"/>
+      <c r="J28" s="66"/>
     </row>
     <row r="29" spans="1:13" ht="32.25" thickBot="1">
       <c r="A29" s="56"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="75">
+      <c r="B29" s="76"/>
+      <c r="C29" s="67">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D29" s="75">
+      <c r="D29" s="67">
         <v>0.79166666666666663</v>
       </c>
-      <c r="E29" s="70">
+      <c r="E29" s="62">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F29" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="74" t="s">
+      <c r="F29" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="I29" s="64" t="s">
+      <c r="G29" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="J29" s="76"/>
+      <c r="J29" s="68"/>
     </row>
     <row r="30" spans="1:13" ht="32.25" thickBot="1">
       <c r="A30" s="13"/>
-      <c r="B30" s="65">
+      <c r="B30" s="60">
         <v>41118</v>
       </c>
-      <c r="C30" s="77">
+      <c r="C30" s="69">
         <v>0.41180555555555554</v>
       </c>
-      <c r="D30" s="77">
+      <c r="D30" s="69">
         <v>0.44097222222222227</v>
       </c>
-      <c r="E30" s="63">
+      <c r="E30" s="58">
         <f t="shared" si="1"/>
         <v>2.916666666666673E-2</v>
       </c>
-      <c r="F30" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="74" t="s">
+      <c r="F30" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" s="64" t="s">
+      <c r="G30" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="J30" s="78"/>
-    </row>
-    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="J30" s="70"/>
+    </row>
+    <row r="31" spans="1:13" ht="32.25" thickBot="1">
       <c r="A31" s="13"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
+      <c r="B31" s="61">
+        <v>41120</v>
+      </c>
+      <c r="C31" s="72">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="D31" s="72">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="E31" s="58">
+        <f t="shared" si="1"/>
+        <v>0.25902777777777786</v>
+      </c>
+      <c r="F31" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="73"/>
     </row>
     <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="20"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
     </row>
     <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="13"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
       <c r="M33" s="10"/>
     </row>
     <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="13"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
       <c r="M34" s="10"/>
     </row>
     <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A35" s="13"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
       <c r="M35" s="10"/>
     </row>
     <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A36" s="13"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
       <c r="M36" s="10"/>
     </row>
     <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="20"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
       <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="13"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
       <c r="M38" s="10"/>
     </row>
     <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A39" s="13"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
     </row>
     <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="13"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
     </row>
     <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="13"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
     </row>
     <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="20"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
     </row>
     <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A43" s="13"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
       <c r="M43" s="10"/>
     </row>
     <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A44" s="13"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
       <c r="M44" s="10"/>
     </row>
     <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A45" s="13"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
       <c r="M45" s="10"/>
     </row>
     <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="13"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="64"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
       <c r="M46" s="10"/>
     </row>
     <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A47" s="20"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
       <c r="M47" s="10"/>
     </row>
     <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="13"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
       <c r="M48" s="10"/>
     </row>
     <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="13"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="74"/>
-      <c r="J49" s="74"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
     </row>
     <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="13"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
     </row>
     <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A51" s="13"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
     </row>
     <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A52" s="20"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="63"/>
     </row>
     <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A53" s="13"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="64"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
       <c r="M53" s="10"/>
     </row>
     <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="13"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="74"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="74"/>
-      <c r="J54" s="74"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="66"/>
+      <c r="J54" s="66"/>
     </row>
     <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A55" s="13"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="71"/>
+      <c r="I55" s="70"/>
+      <c r="J55" s="70"/>
     </row>
     <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A56" s="13"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
     </row>
     <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A57" s="20"/>
-      <c r="B57" s="62"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="71"/>
-      <c r="J57" s="71"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
     </row>
     <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A58" s="13"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F58" s="64"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="64"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
       <c r="M58" s="10"/>
     </row>
     <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A59" s="13"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
       <c r="M59" s="10"/>
     </row>
     <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A60" s="13"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="64"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
       <c r="M60" s="10"/>
     </row>
     <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A61" s="13"/>
-      <c r="B61" s="72"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F61" s="64"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="64"/>
-      <c r="I61" s="64"/>
-      <c r="J61" s="64"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
       <c r="M61" s="10"/>
     </row>
     <row r="62" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A62" s="20"/>
-      <c r="B62" s="72"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="64"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="64"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="59"/>
       <c r="M62" s="10"/>
     </row>
     <row r="63" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A63" s="13"/>
-      <c r="B63" s="72"/>
-      <c r="C63" s="63"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="64"/>
-      <c r="J63" s="64"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="59"/>
       <c r="M63" s="10"/>
     </row>
     <row r="64" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A64" s="13"/>
-      <c r="B64" s="82"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F64" s="74"/>
-      <c r="G64" s="74"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="74"/>
-      <c r="J64" s="74"/>
+      <c r="B64" s="74"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
     </row>
     <row r="65" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A65" s="13"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="77"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="79"/>
-      <c r="I65" s="78"/>
-      <c r="J65" s="78"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="70"/>
+      <c r="G65" s="70"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="70"/>
+      <c r="J65" s="70"/>
     </row>
     <row r="66" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A66" s="13"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F66" s="81"/>
-      <c r="G66" s="81"/>
-      <c r="H66" s="81"/>
-      <c r="I66" s="81"/>
-      <c r="J66" s="81"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="73"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="73"/>
+      <c r="J66" s="73"/>
     </row>
     <row r="67" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A67" s="20"/>
-      <c r="B67" s="62"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="71"/>
-      <c r="J67" s="71"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:J6"/>
@@ -2404,7 +2419,7 @@
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="13"/>
-      <c r="B8" s="57">
+      <c r="B8" s="81">
         <v>41102</v>
       </c>
       <c r="C8" s="21">
@@ -2436,7 +2451,7 @@
       <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="58"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="21">
         <v>0.41666666666666669</v>
       </c>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="59">
   <si>
     <t>Week</t>
   </si>
@@ -891,7 +891,7 @@
   <dimension ref="A2:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1405,7 +1405,7 @@
       <c r="J20" s="59"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:13" ht="48" thickBot="1">
+    <row r="21" spans="1:13" ht="32.25" thickBot="1">
       <c r="A21" s="45"/>
       <c r="B21" s="57">
         <v>41113</v>
@@ -1722,19 +1722,31 @@
       </c>
       <c r="J31" s="73"/>
     </row>
-    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="32" spans="1:13" ht="32.25" thickBot="1">
       <c r="A32" s="20"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="62"/>
+      <c r="B32" s="57">
+        <v>41121</v>
+      </c>
+      <c r="C32" s="62">
+        <v>0.51597222222222217</v>
+      </c>
       <c r="D32" s="62"/>
       <c r="E32" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
+        <v>-0.51597222222222217</v>
+      </c>
+      <c r="F32" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="59" t="s">
+        <v>39</v>
+      </c>
       <c r="J32" s="63"/>
     </row>
     <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="59">
   <si>
     <t>Week</t>
   </si>
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1728,12 +1728,14 @@
         <v>41121</v>
       </c>
       <c r="C32" s="62">
-        <v>0.51597222222222217</v>
-      </c>
-      <c r="D32" s="62"/>
+        <v>0.63124999999999998</v>
+      </c>
+      <c r="D32" s="62">
+        <v>0.8618055555555556</v>
+      </c>
       <c r="E32" s="58">
         <f t="shared" si="1"/>
-        <v>-0.51597222222222217</v>
+        <v>0.23055555555555562</v>
       </c>
       <c r="F32" s="63" t="s">
         <v>58</v>
@@ -1749,19 +1751,33 @@
       </c>
       <c r="J32" s="63"/>
     </row>
-    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="33" spans="1:13" ht="32.25" thickBot="1">
       <c r="A33" s="13"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
+      <c r="B33" s="64">
+        <v>41122</v>
+      </c>
+      <c r="C33" s="58">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D33" s="58">
+        <v>0.19999999999999998</v>
+      </c>
       <c r="E33" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
+        <v>0.17916666666666664</v>
+      </c>
+      <c r="F33" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" s="59" t="s">
+        <v>38</v>
+      </c>
       <c r="J33" s="59"/>
       <c r="M33" s="10"/>
     </row>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="61">
   <si>
     <t>Week</t>
   </si>
@@ -201,6 +201,13 @@
   <si>
     <t>Implement 
 Function "loadNgayCuaTuanHienTai()"</t>
+  </si>
+  <si>
+    <t>Implement 
+Function "loadNgayCuaTuanKeTiep()"</t>
+  </si>
+  <si>
+    <t>Coding Function "loadNgayCuaTuanKeTiep"</t>
   </si>
 </sst>
 </file>
@@ -360,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -592,6 +599,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -891,7 +901,7 @@
   <dimension ref="A2:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1753,7 +1763,7 @@
     </row>
     <row r="33" spans="1:13" ht="32.25" thickBot="1">
       <c r="A33" s="13"/>
-      <c r="B33" s="64">
+      <c r="B33" s="81">
         <v>41122</v>
       </c>
       <c r="C33" s="58">
@@ -1781,51 +1791,86 @@
       <c r="J33" s="59"/>
       <c r="M33" s="10"/>
     </row>
-    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="34" spans="1:13" ht="32.25" thickBot="1">
       <c r="A34" s="13"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="58">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="D34" s="58">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="E34" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
+        <v>0.17499999999999993</v>
+      </c>
+      <c r="F34" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="59" t="s">
+        <v>39</v>
+      </c>
       <c r="J34" s="59"/>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="35" spans="1:13" ht="32.25" thickBot="1">
       <c r="A35" s="13"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="58">
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="D35" s="58">
+        <v>0.80972222222222223</v>
+      </c>
       <c r="E35" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
+        <v>4.7222222222222165E-2</v>
+      </c>
+      <c r="F35" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" s="59" t="s">
+        <v>39</v>
+      </c>
       <c r="J35" s="59"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="36" spans="1:13" ht="32.25" thickBot="1">
       <c r="A36" s="13"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="58">
+        <v>0.96388888888888891</v>
+      </c>
+      <c r="D36" s="58">
+        <v>0.21944444444444444</v>
+      </c>
       <c r="E36" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F36" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" s="59" t="s">
+        <v>39</v>
+      </c>
       <c r="J36" s="59"/>
       <c r="M36" s="10"/>
     </row>
@@ -2311,7 +2356,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:J6"/>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B33:B36"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B22:B23"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="69">
   <si>
     <t>Week</t>
   </si>
@@ -208,6 +208,34 @@
   </si>
   <si>
     <t>Coding Function "loadNgayCuaTuanKeTiep"</t>
+  </si>
+  <si>
+    <t>Implement
+Function Import File Excel</t>
+  </si>
+  <si>
+    <t>"MRBS-ReadFileExcel-VanLe"</t>
+  </si>
+  <si>
+    <t>Review class Diagram of read file Excel</t>
+  </si>
+  <si>
+    <t>Coding Function
+FileImport (business control), addGroup, check data null, check data exists (Data Access)</t>
+  </si>
+  <si>
+    <t>Coding Function
+FileImport (business control), addGroup, addNGUOIMUON (Data Access)</t>
+  </si>
+  <si>
+    <t>Coding Function
+getListNguoiMuonChangeGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting data from DB into GUI </t>
+  </si>
+  <si>
+    <t>coding function clearAlldanhsach</t>
   </si>
 </sst>
 </file>
@@ -578,31 +606,31 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1056,7 +1084,7 @@
     </row>
     <row r="9" spans="1:13" ht="16.5" thickBot="1">
       <c r="A9" s="79"/>
-      <c r="B9" s="75">
+      <c r="B9" s="80">
         <v>41054</v>
       </c>
       <c r="C9" s="58">
@@ -1087,7 +1115,7 @@
     </row>
     <row r="10" spans="1:13" ht="16.5" thickBot="1">
       <c r="A10" s="79"/>
-      <c r="B10" s="76"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="58">
         <v>0.67361111111111116</v>
       </c>
@@ -1206,7 +1234,7 @@
     </row>
     <row r="14" spans="1:13" ht="95.25" thickBot="1">
       <c r="A14" s="79"/>
-      <c r="B14" s="75">
+      <c r="B14" s="80">
         <v>41059</v>
       </c>
       <c r="C14" s="58">
@@ -1239,7 +1267,7 @@
     </row>
     <row r="15" spans="1:13" ht="95.25" thickBot="1">
       <c r="A15" s="79"/>
-      <c r="B15" s="76"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="58">
         <v>0.16111111111111112</v>
       </c>
@@ -1270,7 +1298,7 @@
     </row>
     <row r="16" spans="1:13" ht="32.25" thickBot="1">
       <c r="A16" s="79"/>
-      <c r="B16" s="75">
+      <c r="B16" s="80">
         <v>41062</v>
       </c>
       <c r="C16" s="58">
@@ -1303,7 +1331,7 @@
     </row>
     <row r="17" spans="1:13" ht="32.25" thickBot="1">
       <c r="A17" s="79"/>
-      <c r="B17" s="77"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="58">
         <v>0.39583333333333331</v>
       </c>
@@ -1330,8 +1358,8 @@
       <c r="M17" s="10"/>
     </row>
     <row r="18" spans="1:13" ht="32.25" thickBot="1">
-      <c r="A18" s="80"/>
-      <c r="B18" s="76"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="58">
         <v>0.52777777777777779</v>
       </c>
@@ -1359,7 +1387,7 @@
     </row>
     <row r="19" spans="1:13" ht="30.75" customHeight="1" thickBot="1">
       <c r="A19" s="44"/>
-      <c r="B19" s="75">
+      <c r="B19" s="80">
         <v>40735</v>
       </c>
       <c r="C19" s="58">
@@ -1389,7 +1417,7 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
       <c r="A20" s="44"/>
-      <c r="B20" s="76"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="58">
         <v>0.57291666666666663</v>
       </c>
@@ -1446,7 +1474,7 @@
     </row>
     <row r="22" spans="1:13" ht="32.25" thickBot="1">
       <c r="A22" s="13"/>
-      <c r="B22" s="75">
+      <c r="B22" s="80">
         <v>41114</v>
       </c>
       <c r="C22" s="58">
@@ -1476,7 +1504,7 @@
     </row>
     <row r="23" spans="1:13" ht="32.25" thickBot="1">
       <c r="A23" s="13"/>
-      <c r="B23" s="76"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="58">
         <v>0.70833333333333337</v>
       </c>
@@ -1504,7 +1532,7 @@
     </row>
     <row r="24" spans="1:13" ht="32.25" thickBot="1">
       <c r="A24" s="13"/>
-      <c r="B24" s="75">
+      <c r="B24" s="80">
         <v>41115</v>
       </c>
       <c r="C24" s="58">
@@ -1534,7 +1562,7 @@
     </row>
     <row r="25" spans="1:13" ht="32.25" thickBot="1">
       <c r="A25" s="13"/>
-      <c r="B25" s="77"/>
+      <c r="B25" s="83"/>
       <c r="C25" s="58">
         <v>0.45833333333333331</v>
       </c>
@@ -1562,7 +1590,7 @@
     </row>
     <row r="26" spans="1:13" ht="32.25" thickBot="1">
       <c r="A26" s="20"/>
-      <c r="B26" s="76"/>
+      <c r="B26" s="81"/>
       <c r="C26" s="58">
         <v>0.70833333333333337</v>
       </c>
@@ -1620,7 +1648,7 @@
     </row>
     <row r="28" spans="1:13" ht="32.25" thickBot="1">
       <c r="A28" s="13"/>
-      <c r="B28" s="75">
+      <c r="B28" s="80">
         <v>41117</v>
       </c>
       <c r="C28" s="65">
@@ -1649,7 +1677,7 @@
     </row>
     <row r="29" spans="1:13" ht="32.25" thickBot="1">
       <c r="A29" s="56"/>
-      <c r="B29" s="76"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="67">
         <v>0.72916666666666663</v>
       </c>
@@ -1763,7 +1791,7 @@
     </row>
     <row r="33" spans="1:13" ht="32.25" thickBot="1">
       <c r="A33" s="13"/>
-      <c r="B33" s="81">
+      <c r="B33" s="75">
         <v>41122</v>
       </c>
       <c r="C33" s="58">
@@ -1793,7 +1821,7 @@
     </row>
     <row r="34" spans="1:13" ht="32.25" thickBot="1">
       <c r="A34" s="13"/>
-      <c r="B34" s="83"/>
+      <c r="B34" s="76"/>
       <c r="C34" s="58">
         <v>0.4916666666666667</v>
       </c>
@@ -1821,7 +1849,7 @@
     </row>
     <row r="35" spans="1:13" ht="32.25" thickBot="1">
       <c r="A35" s="13"/>
-      <c r="B35" s="83"/>
+      <c r="B35" s="76"/>
       <c r="C35" s="58">
         <v>0.76250000000000007</v>
       </c>
@@ -1849,7 +1877,7 @@
     </row>
     <row r="36" spans="1:13" ht="32.25" thickBot="1">
       <c r="A36" s="13"/>
-      <c r="B36" s="82"/>
+      <c r="B36" s="77"/>
       <c r="C36" s="58">
         <v>0.96388888888888891</v>
       </c>
@@ -1874,143 +1902,256 @@
       <c r="J36" s="59"/>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="37" spans="1:13" ht="32.25" thickBot="1">
       <c r="A37" s="20"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
+      <c r="B37" s="64">
+        <v>41126</v>
+      </c>
+      <c r="C37" s="58">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D37" s="58">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="E37" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F37" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="I37" s="59" t="s">
+        <v>39</v>
+      </c>
       <c r="J37" s="59"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="38" spans="1:13" ht="63.75" thickBot="1">
       <c r="A38" s="13"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
+      <c r="B38" s="75">
+        <v>41127</v>
+      </c>
+      <c r="C38" s="58">
+        <v>0.375</v>
+      </c>
+      <c r="D38" s="58">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="E38" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="F38" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="I38" s="59" t="s">
+        <v>39</v>
+      </c>
       <c r="J38" s="59"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="39" spans="1:13" ht="63.75" thickBot="1">
       <c r="A39" s="13"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="65">
+        <v>0.95486111111111116</v>
+      </c>
+      <c r="D39" s="65">
+        <v>0.24652777777777779</v>
+      </c>
       <c r="E39" s="58">
-        <f t="shared" si="1"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F39" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" s="66"/>
+    </row>
+    <row r="40" spans="1:13" ht="63.75" thickBot="1">
+      <c r="A40" s="13"/>
+      <c r="B40" s="75">
+        <v>41128</v>
+      </c>
+      <c r="C40" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="D40" s="69">
+        <v>0.625</v>
+      </c>
+      <c r="E40" s="58">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F40" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="H40" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" s="70"/>
+    </row>
+    <row r="41" spans="1:13" ht="32.25" thickBot="1">
+      <c r="A41" s="13"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="72">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="D41" s="72">
+        <v>0.81319444444444444</v>
+      </c>
+      <c r="E41" s="58">
+        <f t="shared" si="1"/>
+        <v>7.0138888888888973E-2</v>
+      </c>
+      <c r="F41" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="I41" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="73"/>
+    </row>
+    <row r="42" spans="1:13" ht="32.25" thickBot="1">
+      <c r="A42" s="20"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="62">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D42" s="62">
+        <v>1</v>
+      </c>
+      <c r="E42" s="58">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="F42" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="J42" s="63"/>
+    </row>
+    <row r="43" spans="1:13" ht="32.25" thickBot="1">
+      <c r="A43" s="13"/>
+      <c r="B43" s="75">
+        <v>41129</v>
+      </c>
+      <c r="C43" s="58">
         <v>0</v>
       </c>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-    </row>
-    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-    </row>
-    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="13"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73"/>
-    </row>
-    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A42" s="20"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-    </row>
-    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A43" s="13"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
+      <c r="D43" s="58">
+        <v>6.8749999999999992E-2</v>
+      </c>
       <c r="E43" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
+        <v>6.8749999999999992E-2</v>
+      </c>
+      <c r="F43" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" s="59" t="s">
+        <v>39</v>
+      </c>
       <c r="J43" s="59"/>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="44" spans="1:13" ht="32.25" thickBot="1">
       <c r="A44" s="13"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="58">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="D44" s="58">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="E44" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
+        <v>0.32013888888888892</v>
+      </c>
+      <c r="F44" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" s="59" t="s">
+        <v>38</v>
+      </c>
       <c r="J44" s="59"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="45" spans="1:13" ht="32.25" thickBot="1">
       <c r="A45" s="13"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="58"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="58">
+        <v>0.81319444444444444</v>
+      </c>
       <c r="D45" s="58"/>
       <c r="E45" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
+        <v>-0.81319444444444444</v>
+      </c>
+      <c r="F45" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="I45" s="59" t="s">
+        <v>39</v>
+      </c>
       <c r="J45" s="59"/>
       <c r="M45" s="10"/>
     </row>
@@ -2356,17 +2497,20 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:J6"/>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="B16:B18"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B43:B45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2493,7 +2637,7 @@
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="13"/>
-      <c r="B8" s="81">
+      <c r="B8" s="75">
         <v>41102</v>
       </c>
       <c r="C8" s="21">
@@ -2525,7 +2669,7 @@
       <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="82"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="21">
         <v>0.41666666666666669</v>
       </c>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="72">
   <si>
     <t>Week</t>
   </si>
@@ -236,6 +236,17 @@
   </si>
   <si>
     <t>coding function clearAlldanhsach</t>
+  </si>
+  <si>
+    <t>Implement
+Function Export File Excel</t>
+  </si>
+  <si>
+    <t>Rework
+Function Export File Excel</t>
+  </si>
+  <si>
+    <t>coding function Export TKPhong và TKNguoiMuon</t>
   </si>
 </sst>
 </file>
@@ -929,7 +940,7 @@
   <dimension ref="A2:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2135,10 +2146,11 @@
       <c r="C45" s="58">
         <v>0.81319444444444444</v>
       </c>
-      <c r="D45" s="58"/>
+      <c r="D45" s="58">
+        <v>0.5</v>
+      </c>
       <c r="E45" s="58">
-        <f t="shared" si="1"/>
-        <v>-0.81319444444444444</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="F45" s="59" t="s">
         <v>61</v>
@@ -2155,35 +2167,61 @@
       <c r="J45" s="59"/>
       <c r="M45" s="10"/>
     </row>
-    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="46" spans="1:13" ht="32.25" thickBot="1">
       <c r="A46" s="13"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
+      <c r="B46" s="75">
+        <v>41130</v>
+      </c>
+      <c r="C46" s="58">
+        <v>0</v>
+      </c>
+      <c r="D46" s="58">
+        <v>0.15347222222222223</v>
+      </c>
       <c r="E46" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
+        <v>0.15347222222222223</v>
+      </c>
+      <c r="F46" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" s="59" t="s">
+        <v>39</v>
+      </c>
       <c r="J46" s="59"/>
       <c r="M46" s="10"/>
     </row>
-    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="47" spans="1:13" ht="32.25" thickBot="1">
       <c r="A47" s="20"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="58">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="D47" s="58">
+        <v>0.63958333333333328</v>
+      </c>
       <c r="E47" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
+        <v>0.12777777777777777</v>
+      </c>
+      <c r="F47" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="H47" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="I47" s="59" t="s">
+        <v>39</v>
+      </c>
       <c r="J47" s="59"/>
       <c r="M47" s="10"/>
     </row>
@@ -2497,7 +2535,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:J6"/>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B47"/>
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A7:A11"/>
@@ -2510,7 +2550,6 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B43:B45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
+++ b/trunk/Time Log for SAD + SEP/SAD+SEP-TimeLog-VanLe.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="75">
   <si>
     <t>Week</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>coding function Export TKPhong và TKNguoiMuon</t>
+  </si>
+  <si>
+    <t>Review and complete Document SRS</t>
+  </si>
+  <si>
+    <t>Review SRS</t>
+  </si>
+  <si>
+    <t>"K15T1-Team11-MRBS-Software Requirement Specification"</t>
   </si>
 </sst>
 </file>
@@ -939,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2225,35 +2234,63 @@
       <c r="J47" s="59"/>
       <c r="M47" s="10"/>
     </row>
-    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="48" spans="1:13" ht="32.25" thickBot="1">
       <c r="A48" s="13"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
+      <c r="B48" s="64">
+        <v>41131</v>
+      </c>
+      <c r="C48" s="58">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D48" s="58">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="E48" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
+      <c r="F48" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="I48" s="59" t="s">
+        <v>39</v>
+      </c>
       <c r="J48" s="59"/>
       <c r="M48" s="10"/>
     </row>
-    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+    <row r="49" spans="1:13" ht="32.25" thickBot="1">
       <c r="A49" s="13"/>
-      <c r="B49" s="74"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
+      <c r="B49" s="74">
+        <v>41133</v>
+      </c>
+      <c r="C49" s="65">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D49" s="65">
+        <v>1</v>
+      </c>
       <c r="E49" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="66"/>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="F49" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="I49" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="J49" s="66"/>
     </row>
     <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
